--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,32 +213,29 @@
   </si>
   <si>
     <t>3，6，10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-10, 10-70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4，8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感受野？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoICDAR13SCUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3，6，10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5-10, 10-70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4，8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感受野？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cocoICDAR13SCUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3，6，10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否使用atrous</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,6 +377,18 @@
   </si>
   <si>
     <t>iteration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,8,10?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,6 +511,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,8 +522,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -834,16 +843,16 @@
       </c>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -860,10 +869,10 @@
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
@@ -878,16 +887,16 @@
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -904,10 +913,10 @@
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -922,16 +931,16 @@
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -948,10 +957,10 @@
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1020,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1037,15 +1046,15 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -1063,7 +1072,7 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
@@ -1072,21 +1081,21 @@
         <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" t="s">
         <v>73</v>
-      </c>
-      <c r="N2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1108,9 +1117,6 @@
       </c>
       <c r="I3">
         <v>300</v>
-      </c>
-      <c r="J3">
-        <v>700</v>
       </c>
       <c r="L3">
         <v>9</v>
@@ -1141,17 +1147,17 @@
       <c r="I4">
         <v>300</v>
       </c>
-      <c r="J4">
-        <v>700</v>
-      </c>
       <c r="L4">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
       <c r="C5" t="s">
         <v>41</v>
       </c>
@@ -1173,14 +1179,11 @@
       <c r="I5">
         <v>300</v>
       </c>
-      <c r="J5">
-        <v>700</v>
-      </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1199,91 +1202,88 @@
       <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="G6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="8">
         <v>1</v>
       </c>
       <c r="I6">
         <v>300</v>
       </c>
-      <c r="J6">
-        <v>700</v>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="E8">
-        <v>300</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="G9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>300</v>
-      </c>
-      <c r="J8">
-        <v>700</v>
-      </c>
-      <c r="L8">
+      <c r="I9">
+        <v>300</v>
+      </c>
+      <c r="L9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10">
-        <v>300</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>300</v>
-      </c>
-      <c r="J10">
-        <v>700</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>5</v>
+      </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
@@ -1293,111 +1293,105 @@
       <c r="E11">
         <v>300</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>300</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>300</v>
-      </c>
-      <c r="L11">
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>300</v>
+      </c>
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="N11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F12" s="11"/>
+      <c r="N12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="7">
         <v>512</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14">
+        <v>500</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="N14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C16" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13">
-        <v>500</v>
-      </c>
-      <c r="J13">
-        <v>700</v>
-      </c>
-      <c r="L13">
-        <v>6</v>
-      </c>
-      <c r="N13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="10">
-        <v>300</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>500</v>
-      </c>
-      <c r="J15">
-        <v>700</v>
-      </c>
-      <c r="L15">
-        <v>7</v>
-      </c>
-      <c r="M15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C16" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="10">
-        <v>512</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>51</v>
+      <c r="E16" s="7">
+        <v>300</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1405,34 +1399,31 @@
       <c r="I16">
         <v>500</v>
       </c>
-      <c r="J16">
-        <v>700</v>
-      </c>
       <c r="L16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>52</v>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <v>512</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1440,137 +1431,169 @@
       <c r="I17">
         <v>500</v>
       </c>
-      <c r="J17" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <v>512</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="8">
+        <v>512</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>300</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
         <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20">
-        <v>512</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>63</v>
-      </c>
-      <c r="N20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
       </c>
       <c r="E21">
         <v>512</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
         <v>62</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="N21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="N21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22">
+        <v>512</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
         <v>69</v>
       </c>
-      <c r="E24">
-        <v>300</v>
-      </c>
-      <c r="F24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25">
+      <c r="E26">
         <v>512</v>
       </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25">
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
     </row>
@@ -1586,51 +1609,51 @@
   <dimension ref="B1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:M3"/>
+      <selection activeCell="K4" sqref="K4:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
       <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
         <v>84</v>
       </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
       <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
         <v>87</v>
       </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>88</v>
-      </c>
-      <c r="M2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>229</v>
@@ -1645,11 +1668,11 @@
         <v>16</v>
       </c>
       <c r="K3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L3">
         <f>K3*I3/J3</f>
-        <v>4293.75</v>
+        <v>8587.5</v>
       </c>
       <c r="M3">
         <v>5000</v>
@@ -1663,11 +1686,11 @@
         <v>8</v>
       </c>
       <c r="K4">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L4">
         <f>K4*I4/J4</f>
-        <v>8587.5</v>
+        <v>17175</v>
       </c>
       <c r="M4">
         <v>100000</v>
@@ -1681,11 +1704,11 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L5">
         <f>K5*I5/J5</f>
-        <v>17175</v>
+        <v>34350</v>
       </c>
       <c r="M5">
         <v>200000</v>
@@ -1699,11 +1722,11 @@
         <v>8</v>
       </c>
       <c r="K6">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L5:L6" si="0">K6*I6/J6</f>
-        <v>134212.5</v>
+        <f t="shared" ref="L6" si="0">K6*I6/J6</f>
+        <v>268425</v>
       </c>
       <c r="M6">
         <v>150000</v>
@@ -1723,5 +1746,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="结果统计" sheetId="1" r:id="rId1"/>
     <sheet name="需要训练的模型" sheetId="2" r:id="rId2"/>
     <sheet name="数据库统计" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,123 +201,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3， 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4， 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-10, 10-70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4，8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感受野？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoICDAR13SCUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，6，10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用atrous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，6，10？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多尺度等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopSign-train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopSign-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标粒度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2， 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单尺度+多尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCUT_FORU-train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCUT_FORU-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASIA-train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASIA-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单尺度+多尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(batch&gt;=8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchsize要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICDAR2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iter_theory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iteration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,8,10?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-20,20-90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-20, 10-90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>感受野</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3， 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4， 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3，6，10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-10, 10-70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4，8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感受野？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cocoICDAR13SCUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3，6，10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否使用atrous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3，6，10？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多尺度等等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopSign-train</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopSign-test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标粒度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2， 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单尺度+多尺度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCUT_FORU-train</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCUT_FORU-test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CASIA-train</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CASIA-test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单尺度+多尺度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(batch&gt;=8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batchsize要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑</t>
+    <t>300*300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 6, 10, 20, 33, 66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6, 12, 20, 40, 66, 80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512*512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 8, 14, 26, 34, 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 4, 7, 13, 17, 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感受野~感受野*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,67 +441,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">red </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mAP性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-20, 20-90</t>
+  </si>
+  <si>
+    <t>2,4,8，10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>gpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水平方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICDAR2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batch size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epoch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number of image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iter_theory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iteration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4,8,10?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1044,17 +1136,17 @@
     <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -1072,7 +1164,7 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
@@ -1081,21 +1173,27 @@
         <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
         <v>70</v>
       </c>
-      <c r="M2" t="s">
-        <v>72</v>
-      </c>
       <c r="N2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1107,7 +1205,7 @@
         <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1122,7 +1220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1136,10 +1234,10 @@
         <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1151,10 +1249,16 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="O4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1168,10 +1272,10 @@
         <v>300</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1183,10 +1287,16 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1200,10 +1310,10 @@
         <v>300</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="8">
         <v>1</v>
@@ -1215,10 +1325,16 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1232,10 +1348,10 @@
         <v>300</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>
@@ -1247,14 +1363,48 @@
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>300</v>
+      </c>
+      <c r="N8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>8</v>
+      </c>
       <c r="C9" t="s">
         <v>41</v>
       </c>
@@ -1267,20 +1417,49 @@
       <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>300</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G9" s="8">
+        <v>4</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>300</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1294,10 +1473,10 @@
         <v>300</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1309,10 +1488,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>6</v>
       </c>
@@ -1326,10 +1505,10 @@
         <v>300</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1341,13 +1520,13 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -1358,10 +1537,10 @@
         <v>512</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I14">
         <v>500</v>
@@ -1370,16 +1549,16 @@
         <v>6</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>42</v>
@@ -1388,10 +1567,10 @@
         <v>300</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1403,15 +1582,15 @@
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
@@ -1420,10 +1599,10 @@
         <v>512</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1435,15 +1614,15 @@
         <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -1452,10 +1631,10 @@
         <v>512</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1464,7 +1643,7 @@
         <v>500</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1472,7 +1651,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>42</v>
@@ -1481,10 +1660,10 @@
         <v>512</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1493,7 +1672,7 @@
         <v>300</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1501,80 +1680,80 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>512</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>512</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
         <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25">
-        <v>300</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>69</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1582,16 +1761,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>512</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1616,44 +1795,44 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
         <v>86</v>
-      </c>
-      <c r="J2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>229</v>
@@ -1748,4 +1927,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,26 @@
   </si>
   <si>
     <t>gpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">red </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -579,11 +599,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,6 +671,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1121,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1136,12 +1203,12 @@
     <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1191,7 +1258,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1220,7 +1287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1236,7 +1303,7 @@
       <c r="F4" t="s">
         <v>91</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="12" t="s">
         <v>44</v>
       </c>
       <c r="H4">
@@ -1254,11 +1321,11 @@
       <c r="O4" t="s">
         <v>105</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1274,7 +1341,7 @@
       <c r="F5" t="s">
         <v>91</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H5">
@@ -1292,11 +1359,11 @@
       <c r="O5" t="s">
         <v>106</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1312,7 +1379,7 @@
       <c r="F6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="18" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="8">
@@ -1330,11 +1397,11 @@
       <c r="O6" t="s">
         <v>104</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1350,7 +1417,7 @@
       <c r="F7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="16" t="s">
         <v>87</v>
       </c>
       <c r="H7" s="8">
@@ -1368,11 +1435,11 @@
       <c r="O7" t="s">
         <v>107</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>9</v>
       </c>
@@ -1388,7 +1455,7 @@
       <c r="F8" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="17" t="s">
         <v>112</v>
       </c>
       <c r="H8" s="8">
@@ -1401,7 +1468,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -1417,7 +1484,7 @@
       <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="21">
         <v>4</v>
       </c>
       <c r="H9" s="8">
@@ -1432,8 +1499,14 @@
       <c r="O9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>119</v>
+      </c>
+      <c r="R9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1446,10 +1519,10 @@
       <c r="E10">
         <v>300</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="14" t="s">
         <v>88</v>
       </c>
       <c r="H10">
@@ -1458,8 +1531,20 @@
       <c r="N10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>118</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1472,7 +1557,7 @@
       <c r="E11">
         <v>300</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G11" t="s">
@@ -1490,8 +1575,14 @@
       <c r="N11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -1504,7 +1595,7 @@
       <c r="E12">
         <v>300</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="16" t="s">
         <v>101</v>
       </c>
       <c r="G12" t="s">
@@ -1522,257 +1613,367 @@
       <c r="N12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="12">
+        <v>5</v>
+      </c>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="7">
-        <v>512</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14">
-        <v>500</v>
-      </c>
-      <c r="L14">
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="18">
         <v>6</v>
       </c>
-      <c r="N14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
-        <v>49</v>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="7">
-        <v>300</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>500</v>
-      </c>
-      <c r="L16">
-        <v>7</v>
-      </c>
-      <c r="M16" t="s">
-        <v>69</v>
-      </c>
-      <c r="N16" t="s">
-        <v>72</v>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="18">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C17" s="7" t="s">
-        <v>49</v>
+      <c r="C17" t="s">
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="7">
-        <v>512</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>500</v>
-      </c>
-      <c r="L17">
-        <v>8</v>
-      </c>
-      <c r="M17" t="s">
-        <v>69</v>
-      </c>
-      <c r="N17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="8">
-        <v>512</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>500</v>
-      </c>
-      <c r="J18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
+      <c r="G18" s="16">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>512</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
+      <c r="G19" t="s">
+        <v>52</v>
       </c>
       <c r="I19">
-        <v>300</v>
-      </c>
-      <c r="J19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="N19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21">
-        <v>512</v>
-      </c>
-      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="7">
+        <v>300</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" t="s">
-        <v>60</v>
+      <c r="I21">
+        <v>500</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21" t="s">
+        <v>69</v>
       </c>
       <c r="N21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>61</v>
+      <c r="C22" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22">
+        <v>42</v>
+      </c>
+      <c r="E22" s="7">
         <v>512</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" t="s">
-        <v>60</v>
+      <c r="I22">
+        <v>500</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>69</v>
       </c>
       <c r="N22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25">
-        <v>300</v>
-      </c>
-      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="8">
+        <v>512</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25">
+      <c r="G23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>500</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="8">
+        <v>512</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>300</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>512</v>
       </c>
       <c r="F26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>512</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30" t="s">
         <v>46</v>
       </c>
-      <c r="H26">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>512</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31">
         <v>1</v>
       </c>
     </row>

--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,14 @@
   </si>
   <si>
     <t>green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,15 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -681,6 +680,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1002,16 +1010,16 @@
       </c>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="19" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1028,10 +1036,10 @@
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,16 +1054,16 @@
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="19" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1072,10 +1080,10 @@
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1090,16 +1098,16 @@
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="19" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1116,10 +1124,10 @@
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1190,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1311,7 @@
       <c r="F4" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H4">
@@ -1321,7 +1329,7 @@
       <c r="O4" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1341,7 +1349,7 @@
       <c r="F5" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>45</v>
       </c>
       <c r="H5">
@@ -1359,7 +1367,7 @@
       <c r="O5" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1379,7 +1387,7 @@
       <c r="F6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="15" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="8">
@@ -1397,7 +1405,7 @@
       <c r="O6" t="s">
         <v>104</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1417,7 +1425,7 @@
       <c r="F7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="13" t="s">
         <v>87</v>
       </c>
       <c r="H7" s="8">
@@ -1435,7 +1443,7 @@
       <c r="O7" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="11">
         <v>4</v>
       </c>
     </row>
@@ -1455,7 +1463,7 @@
       <c r="F8" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="14" t="s">
         <v>112</v>
       </c>
       <c r="H8" s="8">
@@ -1484,7 +1492,7 @@
       <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <v>4</v>
       </c>
       <c r="H9" s="8">
@@ -1502,7 +1510,7 @@
       <c r="Q9" t="s">
         <v>119</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1519,10 +1527,10 @@
       <c r="E10">
         <v>300</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>88</v>
       </c>
       <c r="H10">
@@ -1534,13 +1542,13 @@
       <c r="O10" t="s">
         <v>117</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="9">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
         <v>118</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="11">
         <v>2</v>
       </c>
     </row>
@@ -1557,7 +1565,7 @@
       <c r="E11">
         <v>300</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="G11" t="s">
@@ -1578,7 +1586,7 @@
       <c r="O11" t="s">
         <v>115</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1595,7 +1603,7 @@
       <c r="E12">
         <v>300</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>101</v>
       </c>
       <c r="G12" t="s">
@@ -1616,11 +1624,14 @@
       <c r="O12" t="s">
         <v>116</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>11</v>
+      </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
@@ -1630,15 +1641,21 @@
       <c r="E13">
         <v>300</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="9">
         <v>5</v>
       </c>
-      <c r="P13" s="20"/>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" s="17"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>13</v>
+      </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -1648,13 +1665,13 @@
       <c r="E14">
         <v>300</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="15">
         <v>6</v>
       </c>
-      <c r="P14" s="20"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15">
@@ -1669,14 +1686,17 @@
       <c r="E15">
         <v>300</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>12</v>
+      </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -1686,14 +1706,20 @@
       <c r="E16">
         <v>300</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="15">
         <v>3</v>
       </c>
+      <c r="N16" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>15</v>
+      </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
@@ -1703,14 +1729,17 @@
       <c r="E17">
         <v>300</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>14</v>
+      </c>
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -1720,10 +1749,10 @@
       <c r="E18">
         <v>300</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="13">
         <v>7</v>
       </c>
     </row>
@@ -1737,11 +1766,11 @@
       <c r="E19" s="7">
         <v>512</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G19" t="s">
-        <v>52</v>
+      <c r="G19">
+        <v>4</v>
       </c>
       <c r="I19">
         <v>500</v>
@@ -1754,8 +1783,18 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="7">
+        <v>512</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C21" s="7" t="s">

--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3，6，10？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多尺度等等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,6 +505,62 @@
   </si>
   <si>
     <t>gpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要训练时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要训练时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建韵，32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1196,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1213,15 +1265,15 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -1248,27 +1300,27 @@
         <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
         <v>70</v>
       </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
       <c r="O2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" t="s">
         <v>108</v>
-      </c>
-      <c r="P2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1280,7 +1332,7 @@
         <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1309,7 +1361,7 @@
         <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>44</v>
@@ -1324,10 +1376,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P4" s="9">
         <v>2</v>
@@ -1347,7 +1399,7 @@
         <v>300</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>45</v>
@@ -1362,10 +1414,10 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P5" s="10">
         <v>1</v>
@@ -1385,7 +1437,7 @@
         <v>300</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>50</v>
@@ -1400,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P6" s="10">
         <v>3</v>
@@ -1423,10 +1475,10 @@
         <v>300</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>
@@ -1438,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P7" s="11">
         <v>4</v>
@@ -1461,11 +1513,11 @@
         <v>300</v>
       </c>
       <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="H8" s="8">
         <v>1</v>
       </c>
@@ -1473,7 +1525,7 @@
         <v>300</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1502,13 +1554,13 @@
         <v>300</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R9" s="9">
         <v>1</v>
@@ -1528,25 +1580,25 @@
         <v>300</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P10" s="9">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R10" s="11">
         <v>2</v>
@@ -1569,7 +1621,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1581,10 +1633,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P11" s="10">
         <v>1</v>
@@ -1604,10 +1656,10 @@
         <v>300</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1619,10 +1671,10 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P12" s="11">
         <v>3</v>
@@ -1648,7 +1700,7 @@
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P13" s="17"/>
     </row>
@@ -1671,6 +1723,9 @@
       <c r="G14" s="15">
         <v>6</v>
       </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
       <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1713,12 +1768,12 @@
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -1732,31 +1787,21 @@
       <c r="F17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18">
-        <v>300</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="G17" s="13">
         <v>7</v>
       </c>
+      <c r="N17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>15</v>
+      </c>
       <c r="C19" t="s">
         <v>41</v>
       </c>
@@ -1779,10 +1824,13 @@
         <v>6</v>
       </c>
       <c r="N19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>16</v>
+      </c>
       <c r="C20" t="s">
         <v>41</v>
       </c>
@@ -1795,40 +1843,18 @@
       <c r="F20" s="17" t="s">
         <v>46</v>
       </c>
+      <c r="G20" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="7">
-        <v>300</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>500</v>
-      </c>
-      <c r="L21">
-        <v>7</v>
-      </c>
-      <c r="M21" t="s">
-        <v>69</v>
-      </c>
-      <c r="N21" t="s">
-        <v>72</v>
-      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>17</v>
+      </c>
       <c r="C22" s="7" t="s">
         <v>49</v>
       </c>
@@ -1836,13 +1862,13 @@
         <v>42</v>
       </c>
       <c r="E22" s="7">
-        <v>512</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>48</v>
+        <v>300</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1851,30 +1877,33 @@
         <v>500</v>
       </c>
       <c r="L22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>512</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>47</v>
+      <c r="G23" t="s">
+        <v>124</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1882,14 +1911,23 @@
       <c r="I23">
         <v>500</v>
       </c>
-      <c r="J23" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24">
+        <v>19</v>
+      </c>
       <c r="C24" t="s">
         <v>49</v>
       </c>
@@ -1909,50 +1947,65 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="8">
+        <v>512</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>300</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D27" t="s">
         <v>54</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26">
-        <v>512</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>60</v>
-      </c>
-      <c r="N26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
       </c>
       <c r="E27">
         <v>512</v>
@@ -1961,58 +2014,84 @@
         <v>48</v>
       </c>
       <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
         <v>59</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="N27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>60</v>
       </c>
-      <c r="N27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28">
+        <v>512</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="D30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30">
-        <v>300</v>
-      </c>
-      <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
       <c r="E31">
-        <v>512</v>
+        <v>300</v>
       </c>
       <c r="F31" t="s">
         <v>46</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32">
+        <v>512</v>
+      </c>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
     </row>
@@ -2028,51 +2107,51 @@
   <dimension ref="B1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K6"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
       <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
       <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
         <v>84</v>
       </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>85</v>
-      </c>
-      <c r="M2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>229</v>
@@ -2087,14 +2166,14 @@
         <v>16</v>
       </c>
       <c r="K3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L3">
         <f>K3*I3/J3</f>
-        <v>8587.5</v>
-      </c>
-      <c r="M3">
-        <v>5000</v>
+        <v>10018.75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -2105,14 +2184,14 @@
         <v>8</v>
       </c>
       <c r="K4">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L4">
         <f>K4*I4/J4</f>
-        <v>17175</v>
-      </c>
-      <c r="M4">
-        <v>100000</v>
+        <v>20037.5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -2123,14 +2202,14 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L5">
         <f>K5*I5/J5</f>
-        <v>34350</v>
-      </c>
-      <c r="M5">
-        <v>200000</v>
+        <v>40075</v>
+      </c>
+      <c r="M5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -2141,14 +2220,50 @@
         <v>8</v>
       </c>
       <c r="K6">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6" si="0">K6*I6/J6</f>
-        <v>268425</v>
-      </c>
-      <c r="M6">
-        <v>150000</v>
+        <v>313162.5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>3579</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>700</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7" si="1">K7*I7/J7</f>
+        <v>156581.25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>3579</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>700</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8" si="2">K8*I8/J8</f>
+        <v>78290.625</v>
+      </c>
+      <c r="M8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -2156,10 +2271,17 @@
         <v>3579</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K9">
-        <v>300</v>
+        <v>700</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9" si="3">K9*I9/J9</f>
+        <v>626325</v>
+      </c>
+      <c r="M9" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2186,35 +2308,35 @@
   <sheetData>
     <row r="2" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
         <v>98</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="结果统计" sheetId="1" r:id="rId1"/>
     <sheet name="需要训练的模型" sheetId="2" r:id="rId2"/>
     <sheet name="数据库统计" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="感受野计算" sheetId="4" r:id="rId4"/>
+    <sheet name="200类目录" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="351">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,6 +564,674 @@
   <si>
     <t>600k</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILSVRC DET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">accordion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">airplane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">antelope </t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">armadillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">artichoke </t>
+  </si>
+  <si>
+    <t xml:space="preserve">axe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">baby bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">backpack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bagel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance beam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">banana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">band aid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">banjo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseball </t>
+  </si>
+  <si>
+    <t xml:space="preserve">basketball </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bathing cap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">beaker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bell pepper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bicycle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bird </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bookshelf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bow tie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bowl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brassiere </t>
+  </si>
+  <si>
+    <t xml:space="preserve">burrito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">butterfly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">camel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">can opener </t>
+  </si>
+  <si>
+    <t xml:space="preserve">car </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cattle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cello </t>
+  </si>
+  <si>
+    <t xml:space="preserve">centipede </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chain saw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chair </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cocktail shaker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coffee maker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">computer keyboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">computer mouse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">corkscrew </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">croquet ball </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crutch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cucumber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cup or mug </t>
+  </si>
+  <si>
+    <t xml:space="preserve">diaper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital clock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dishwasher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dog </t>
+  </si>
+  <si>
+    <t xml:space="preserve">domestic cat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragonfly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dumbbell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">electric fan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">elephant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">face powder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fig </t>
+  </si>
+  <si>
+    <t xml:space="preserve">filing cabinet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flower pot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">french horn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frog </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frying pan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">giant panda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">goldfish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">golf ball </t>
+  </si>
+  <si>
+    <t xml:space="preserve">golfcart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">guacamole </t>
+  </si>
+  <si>
+    <t xml:space="preserve">guitar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hair dryer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hair spray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamburger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hammer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">harmonica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">harp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hat with a wide brim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">head cabbage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">helmet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hippopotamus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">horizontal bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">horse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotdog </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isopod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jellyfish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">koala bear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ladle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ladybug </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lamp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">laptop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lemon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lipstick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lizard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lobster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maillot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maraca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">microphone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">microwave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk can </t>
+  </si>
+  <si>
+    <t xml:space="preserve">miniskirt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monkey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">motorcycle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neck brace </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oboe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange </t>
+  </si>
+  <si>
+    <t xml:space="preserve">otter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pencil box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pencil sharpener </t>
+  </si>
+  <si>
+    <t xml:space="preserve">perfume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">person </t>
+  </si>
+  <si>
+    <t xml:space="preserve">piano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pineapple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ping-pong ball </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pitcher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pizza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic bag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plate rack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pomegranate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">popsicle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">porcupine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">power drill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pretzel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">printer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">puck </t>
+  </si>
+  <si>
+    <t xml:space="preserve">punching bag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">purse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabbit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">racket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">red panda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refrigerator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote control </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubber eraser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rugby ball </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">salt or pepper shaker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saxophone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scorpion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">screwdriver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheep </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ski </t>
+  </si>
+  <si>
+    <t xml:space="preserve">skunk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">snail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowmobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowplow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soap dispenser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soccer ball </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sofa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spatula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">squirrel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">starfish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stethoscope </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stove </t>
+  </si>
+  <si>
+    <t xml:space="preserve">strainer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">strawberry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stretcher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunglasses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swimming trunks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">syringe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tape player </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tennis ball </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">toaster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">traffic light </t>
+  </si>
+  <si>
+    <t xml:space="preserve">train </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trombone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trumpet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">turtle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tv or monitor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unicycle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vacuum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">violin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">volleyball </t>
+  </si>
+  <si>
+    <t xml:space="preserve">waffle iron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">washer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">water bottle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">watercraft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">whale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wine bottle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zebra </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class name in 
+PASCAL VOC 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMBX8"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(20 classes) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">aeroplane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bottle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dining table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">motorbike </t>
+  </si>
+  <si>
+    <t xml:space="preserve">potted plant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tv/monitor </t>
   </si>
 </sst>
 </file>
@@ -571,7 +1241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +1264,26 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="CMTI8"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="CMR8"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="CMBX8"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -700,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -732,6 +1422,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,6 +1433,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,7 +1735,7 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="8" max="8" width="15.125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
@@ -1035,7 +1743,7 @@
     <col min="11" max="11" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:11" ht="28.5">
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1061,17 +1769,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D4" s="21" t="s">
+    <row r="4" spans="4:11">
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1087,11 +1795,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
+    <row r="5" spans="4:11">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1105,17 +1813,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D6" s="21" t="s">
+    <row r="6" spans="4:11">
+      <c r="D6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1131,11 +1839,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
+    <row r="7" spans="4:11">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,17 +1857,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="21" t="s">
+    <row r="8" spans="4:11">
+      <c r="D8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="20" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1175,11 +1883,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20"/>
+    <row r="9" spans="4:11">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1193,7 +1901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:11">
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:11">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1250,11 +1958,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
@@ -1263,12 +1971,12 @@
     <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1318,7 +2026,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" thickBot="1">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1347,7 +2055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1385,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1423,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1461,7 +2169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" thickBot="1">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1499,7 +2207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" thickBot="1">
       <c r="B8">
         <v>9</v>
       </c>
@@ -1528,7 +2236,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" thickBot="1">
       <c r="B9">
         <v>8</v>
       </c>
@@ -1566,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" thickBot="1">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1604,7 +2312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1642,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" thickBot="1">
       <c r="B12">
         <v>6</v>
       </c>
@@ -1680,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1702,9 +2410,11 @@
       <c r="N13" t="s">
         <v>119</v>
       </c>
-      <c r="P13" s="17"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P13" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1726,9 +2436,11 @@
       <c r="N14" t="s">
         <v>121</v>
       </c>
-      <c r="P14" s="17"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P14" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="B15">
         <v>10</v>
       </c>
@@ -1747,8 +2459,11 @@
       <c r="G15" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" thickBot="1">
       <c r="B16">
         <v>12</v>
       </c>
@@ -1770,8 +2485,11 @@
       <c r="N16" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1794,11 +2512,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="B19">
         <v>15</v>
       </c>
@@ -1824,10 +2542,10 @@
         <v>6</v>
       </c>
       <c r="N19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="B20">
         <v>16</v>
       </c>
@@ -1846,12 +2564,15 @@
       <c r="G20" s="16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="E21" s="8"/>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="B22">
         <v>17</v>
       </c>
@@ -1886,7 +2607,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="B23">
         <v>18</v>
       </c>
@@ -1921,7 +2642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -1935,7 +2656,7 @@
         <v>42</v>
       </c>
       <c r="E24" s="8">
-        <v>512</v>
+        <v>300</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>46</v>
@@ -1959,7 +2680,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -1997,7 +2718,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2026,7 +2747,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="C28" t="s">
         <v>60</v>
       </c>
@@ -2052,7 +2773,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2078,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -2104,20 +2825,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M9"/>
+  <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13">
       <c r="C1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -2149,7 +2870,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>77</v>
       </c>
@@ -2176,7 +2897,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13">
       <c r="I4">
         <v>229</v>
       </c>
@@ -2194,7 +2915,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13">
       <c r="I5">
         <v>229</v>
       </c>
@@ -2212,7 +2933,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13">
       <c r="I6">
         <v>3579</v>
       </c>
@@ -2230,7 +2951,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13">
       <c r="I7">
         <v>3579</v>
       </c>
@@ -2248,7 +2969,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="I8">
         <v>3579</v>
       </c>
@@ -2266,7 +2987,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13">
       <c r="I9">
         <v>3579</v>
       </c>
@@ -2282,6 +3003,35 @@
       </c>
       <c r="M9" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2299,14 +3049,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:6">
       <c r="D2" t="s">
         <v>91</v>
       </c>
@@ -2317,7 +3067,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:6">
       <c r="D3" t="s">
         <v>92</v>
       </c>
@@ -2328,7 +3078,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:6">
       <c r="D4" t="s">
         <v>97</v>
       </c>
@@ -2343,4 +3093,770 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:R35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:17">
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="2" spans="3:17">
+      <c r="C2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q2" s="25"/>
+    </row>
+    <row r="3" spans="3:17" ht="28.5">
+      <c r="C3" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q3" s="25"/>
+    </row>
+    <row r="4" spans="3:17" ht="28.5">
+      <c r="C4" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q4" s="25"/>
+    </row>
+    <row r="5" spans="3:17" ht="28.5">
+      <c r="C5" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="3:17" ht="28.5">
+      <c r="C6" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="3:17" ht="28.5">
+      <c r="C7" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="3:17" ht="28.5">
+      <c r="C8" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="3:17" ht="28.5">
+      <c r="C9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="3:17" ht="28.5">
+      <c r="C10" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="3:17" ht="42.75">
+      <c r="C11" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="3:17" ht="28.5">
+      <c r="C12" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="3:17" ht="28.5">
+      <c r="C13" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q13" s="26"/>
+    </row>
+    <row r="14" spans="3:17" ht="28.5">
+      <c r="C14" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q14" s="26"/>
+    </row>
+    <row r="15" spans="3:17" ht="28.5">
+      <c r="C15" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q15" s="25"/>
+    </row>
+    <row r="16" spans="3:17" ht="28.5">
+      <c r="C16" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q16" s="25"/>
+    </row>
+    <row r="17" spans="3:18" ht="28.5">
+      <c r="C17" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q17" s="25"/>
+    </row>
+    <row r="18" spans="3:18" ht="28.5">
+      <c r="C18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" spans="3:18" ht="28.5">
+      <c r="C19" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q19" s="26"/>
+    </row>
+    <row r="20" spans="3:18" ht="28.5">
+      <c r="C20" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q20" s="25"/>
+    </row>
+    <row r="21" spans="3:18" ht="28.5">
+      <c r="C21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q21" s="25"/>
+    </row>
+    <row r="22" spans="3:18">
+      <c r="Q22" s="25"/>
+    </row>
+    <row r="23" spans="3:18" ht="14.25" customHeight="1">
+      <c r="M23" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18">
+      <c r="M24" s="24"/>
+      <c r="N24" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="R24" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18">
+      <c r="M25" s="24"/>
+      <c r="N25" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="R25" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18">
+      <c r="M26" s="24"/>
+      <c r="N26" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q26" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="R26" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" ht="14.25" customHeight="1"/>
+    <row r="35" ht="27.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M23:M26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="结果统计" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="200类目录" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="359">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,10 +307,6 @@
   </si>
   <si>
     <t>my</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1232,6 +1223,46 @@
   </si>
   <si>
     <t xml:space="preserve">tv/monitor </t>
+  </si>
+  <si>
+    <t>ICDAR13-train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五晚上开始跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my，16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.29-10.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20k, 30k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1425,6 +1456,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,18 +1478,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1770,16 +1801,16 @@
       </c>
     </row>
     <row r="4" spans="4:11">
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1796,10 +1827,10 @@
       </c>
     </row>
     <row r="5" spans="4:11">
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1814,16 +1845,16 @@
       </c>
     </row>
     <row r="6" spans="4:11">
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1840,10 +1871,10 @@
       </c>
     </row>
     <row r="7" spans="4:11">
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1858,16 +1889,16 @@
       </c>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="24" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1884,10 +1915,10 @@
       </c>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1956,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1973,7 +2004,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1981,7 +2012,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -2008,22 +2039,22 @@
         <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>356</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
         <v>69</v>
       </c>
-      <c r="N2" t="s">
-        <v>70</v>
-      </c>
       <c r="O2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1">
@@ -2040,7 +2071,7 @@
         <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2069,7 +2100,7 @@
         <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>44</v>
@@ -2084,10 +2115,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P4" s="9">
         <v>2</v>
@@ -2107,7 +2138,7 @@
         <v>300</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>45</v>
@@ -2122,10 +2153,10 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P5" s="10">
         <v>1</v>
@@ -2145,7 +2176,7 @@
         <v>300</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>50</v>
@@ -2160,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P6" s="10">
         <v>3</v>
@@ -2183,10 +2214,10 @@
         <v>300</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>
@@ -2198,10 +2229,10 @@
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P7" s="11">
         <v>4</v>
@@ -2221,10 +2252,10 @@
         <v>300</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
@@ -2233,7 +2264,7 @@
         <v>300</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1">
@@ -2262,13 +2293,13 @@
         <v>300</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R9" s="9">
         <v>1</v>
@@ -2288,25 +2319,25 @@
         <v>300</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P10" s="9">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R10" s="11">
         <v>2</v>
@@ -2329,7 +2360,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2341,10 +2372,10 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P11" s="10">
         <v>1</v>
@@ -2364,10 +2395,10 @@
         <v>300</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2379,10 +2410,10 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P12" s="11">
         <v>3</v>
@@ -2408,7 +2439,7 @@
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P13" s="14">
         <v>2</v>
@@ -2434,7 +2465,7 @@
         <v>6</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P14" s="15">
         <v>4</v>
@@ -2483,13 +2514,13 @@
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P16" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1">
+    <row r="17" spans="1:15" ht="15" thickBot="1">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2509,16 +2540,16 @@
         <v>7</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="B19">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -2526,28 +2557,22 @@
       <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="7">
-        <v>512</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
-      <c r="I19">
-        <v>500</v>
-      </c>
-      <c r="L19">
-        <v>6</v>
-      </c>
-      <c r="N19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="K19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="B20">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -2555,64 +2580,57 @@
       <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="7">
-        <v>512</v>
-      </c>
-      <c r="F20" s="17" t="s">
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="N20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="E21" s="8"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="B22">
-        <v>17</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="7">
-        <v>300</v>
+        <v>512</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="G22">
+        <v>4</v>
       </c>
       <c r="I22">
         <v>500</v>
       </c>
       <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="N22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="B23">
-        <v>18</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>349</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -2623,196 +2641,264 @@
       <c r="F23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>500</v>
-      </c>
-      <c r="L23">
-        <v>8</v>
-      </c>
-      <c r="M23" t="s">
-        <v>68</v>
+      <c r="G23" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="N23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="8">
-        <v>300</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>500</v>
-      </c>
-      <c r="J24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>126</v>
-      </c>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="E24" s="8"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="8">
-        <v>512</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="7">
+        <v>300</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>47</v>
+      <c r="G25" t="s">
+        <v>122</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
+        <v>500</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7">
+        <v>512</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>500</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" t="s">
+        <v>99</v>
+      </c>
+      <c r="O26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="8">
         <v>300</v>
       </c>
-      <c r="J25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27">
-        <v>512</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" t="s">
-        <v>58</v>
+      <c r="F27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" t="s">
-        <v>59</v>
+      <c r="I27">
+        <v>500</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28">
+        <v>42</v>
+      </c>
+      <c r="E28" s="8">
         <v>512</v>
       </c>
-      <c r="F28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" t="s">
-        <v>58</v>
+      <c r="F28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28">
+        <v>300</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>125</v>
+      </c>
+      <c r="O28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30">
+        <v>512</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>59</v>
       </c>
-      <c r="N28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
+      <c r="N30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="C31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E31">
-        <v>300</v>
+        <v>512</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31">
+        <v>59</v>
+      </c>
+      <c r="N31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34">
+        <v>300</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="C32" t="s">
+      <c r="I34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
         <v>64</v>
       </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32">
+      <c r="E35">
         <v>512</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F35" t="s">
         <v>46</v>
       </c>
-      <c r="H32">
+      <c r="H35">
         <v>1</v>
       </c>
     </row>
@@ -2825,54 +2911,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M21"/>
+  <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I5" sqref="I5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:14">
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="2:13">
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>83</v>
       </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
+      <c r="N2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>229</v>
@@ -2894,10 +2983,10 @@
         <v>10018.75</v>
       </c>
       <c r="M3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="I4">
         <v>229</v>
       </c>
@@ -2912,10 +3001,10 @@
         <v>20037.5</v>
       </c>
       <c r="M4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="I5">
         <v>229</v>
       </c>
@@ -2930,10 +3019,13 @@
         <v>40075</v>
       </c>
       <c r="M5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
+        <v>128</v>
+      </c>
+      <c r="N5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="I6">
         <v>3579</v>
       </c>
@@ -2948,10 +3040,13 @@
         <v>313162.5</v>
       </c>
       <c r="M6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
+        <v>129</v>
+      </c>
+      <c r="N6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="I7">
         <v>3579</v>
       </c>
@@ -2966,10 +3061,10 @@
         <v>156581.25</v>
       </c>
       <c r="M7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="I8">
         <v>3579</v>
       </c>
@@ -2984,10 +3079,10 @@
         <v>78290.625</v>
       </c>
       <c r="M8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="I9">
         <v>3579</v>
       </c>
@@ -3002,17 +3097,20 @@
         <v>626325</v>
       </c>
       <c r="M9" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="N9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="5:6">
       <c r="F18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="5:6">
       <c r="E19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F19">
         <v>80</v>
@@ -3020,7 +3118,7 @@
     </row>
     <row r="20" spans="5:6">
       <c r="E20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F20">
         <v>20</v>
@@ -3028,7 +3126,7 @@
     </row>
     <row r="21" spans="5:6">
       <c r="E21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F21">
         <v>200</v>
@@ -3058,35 +3156,35 @@
   <sheetData>
     <row r="2" spans="4:6">
       <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
         <v>91</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="4:6">
       <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="4:6">
       <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
         <v>97</v>
       </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -3115,739 +3213,739 @@
     </row>
     <row r="2" spans="3:17">
       <c r="C2" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q2" s="25"/>
+        <v>319</v>
+      </c>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="3:17" ht="28.5">
       <c r="C3" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q3" s="25"/>
+        <v>320</v>
+      </c>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="3:17" ht="28.5">
       <c r="C4" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q4" s="25"/>
+        <v>321</v>
+      </c>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="3:17" ht="28.5">
       <c r="C5" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q5" s="25"/>
+        <v>322</v>
+      </c>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="3:17" ht="28.5">
       <c r="C6" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q6" s="25"/>
+        <v>323</v>
+      </c>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="3:17" ht="28.5">
       <c r="C7" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q7" s="26"/>
+        <v>324</v>
+      </c>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="3:17" ht="28.5">
       <c r="C8" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q8" s="26"/>
+        <v>325</v>
+      </c>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="3:17" ht="28.5">
       <c r="C9" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q9" s="25"/>
+        <v>326</v>
+      </c>
+      <c r="Q9" s="21"/>
     </row>
     <row r="10" spans="3:17" ht="28.5">
       <c r="C10" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q10" s="25"/>
+        <v>327</v>
+      </c>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="3:17" ht="42.75">
       <c r="C11" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q11" s="25"/>
+        <v>328</v>
+      </c>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="3:17" ht="28.5">
       <c r="C12" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q12" s="25"/>
+        <v>329</v>
+      </c>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="3:17" ht="28.5">
       <c r="C13" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q13" s="26"/>
+        <v>330</v>
+      </c>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="3:17" ht="28.5">
       <c r="C14" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q14" s="26"/>
+        <v>331</v>
+      </c>
+      <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="3:17" ht="28.5">
       <c r="C15" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q15" s="25"/>
+        <v>332</v>
+      </c>
+      <c r="Q15" s="21"/>
     </row>
     <row r="16" spans="3:17" ht="28.5">
       <c r="C16" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q16" s="25"/>
+        <v>333</v>
+      </c>
+      <c r="Q16" s="21"/>
     </row>
     <row r="17" spans="3:18" ht="28.5">
       <c r="C17" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q17" s="25"/>
+        <v>334</v>
+      </c>
+      <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="3:18" ht="28.5">
       <c r="C18" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q18" s="25"/>
+        <v>335</v>
+      </c>
+      <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="3:18" ht="28.5">
       <c r="C19" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q19" s="26"/>
+        <v>336</v>
+      </c>
+      <c r="Q19" s="22"/>
     </row>
     <row r="20" spans="3:18" ht="28.5">
       <c r="C20" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q20" s="25"/>
+        <v>337</v>
+      </c>
+      <c r="Q20" s="21"/>
     </row>
     <row r="21" spans="3:18" ht="28.5">
       <c r="C21" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L21" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="22" spans="3:18">
+      <c r="Q22" s="21"/>
+    </row>
+    <row r="23" spans="3:18" ht="14.25" customHeight="1">
+      <c r="M23" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="N23" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="Q21" s="25"/>
-    </row>
-    <row r="22" spans="3:18">
-      <c r="Q22" s="25"/>
-    </row>
-    <row r="23" spans="3:18" ht="14.25" customHeight="1">
-      <c r="M23" s="24" t="s">
+      <c r="O23" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="R23" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="O23" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="P23" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q23" s="27" t="s">
+    </row>
+    <row r="24" spans="3:18">
+      <c r="M24" s="27"/>
+      <c r="N24" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="R23" s="27" t="s">
+      <c r="Q24" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="R24" s="23" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="3:18">
-      <c r="M24" s="24"/>
-      <c r="N24" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="P24" s="23" t="s">
+    <row r="25" spans="3:18">
+      <c r="M25" s="27"/>
+      <c r="N25" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="Q24" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="R24" s="27" t="s">
+      <c r="O25" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q25" s="20" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="25" spans="3:18">
-      <c r="M25" s="24"/>
-      <c r="N25" s="27" t="s">
+      <c r="R25" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18">
+      <c r="M26" s="27"/>
+      <c r="N26" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="O25" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="P25" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q25" s="23" t="s">
+      <c r="O26" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="R26" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="R25" s="23" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18">
-      <c r="M26" s="24"/>
-      <c r="N26" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="P26" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q26" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="R26" s="23" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="29" spans="3:18" ht="14.25" customHeight="1"/>
@@ -3858,5 +3956,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="结果统计" sheetId="1" r:id="rId1"/>
     <sheet name="需要训练的模型" sheetId="2" r:id="rId2"/>
-    <sheet name="数据库统计" sheetId="3" r:id="rId3"/>
-    <sheet name="感受野计算" sheetId="4" r:id="rId4"/>
-    <sheet name="200类目录" sheetId="5" r:id="rId5"/>
+    <sheet name="已经训练好的模型总结" sheetId="6" r:id="rId3"/>
+    <sheet name="第二章对比试验" sheetId="7" r:id="rId4"/>
+    <sheet name="数据库统计" sheetId="3" r:id="rId5"/>
+    <sheet name="感受野计算" sheetId="4" r:id="rId6"/>
+    <sheet name="200类目录" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="396">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1262,6 +1264,150 @@
   </si>
   <si>
     <t>20k, 30k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchor 尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchor长宽比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max iter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICDAR13</t>
+  </si>
+  <si>
+    <t>ICDAR13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10,20], [20,90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40k</t>
+  </si>
+  <si>
+    <t>40k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>30k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,4,8,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,10], [10, 70]</t>
+  </si>
+  <si>
+    <t>[5,10], [10, 70]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10,20], [10,90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10,20], [10,90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default box的尺度对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default box的长宽比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练图像的尺度对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据扩增的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICDAR13-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习率的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nostep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20k, 30k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 10], [10, 70]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10, 20], [10, 90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10, 20], [20, 90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10, 20], [20, 90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1317,7 +1463,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1327,6 +1473,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,7 +1579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1479,6 +1637,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1987,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2099,10 +2275,10 @@
       <c r="E4">
         <v>300</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H4">
@@ -2137,10 +2313,10 @@
       <c r="E5">
         <v>300</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="30" t="s">
         <v>45</v>
       </c>
       <c r="H5">
@@ -2175,10 +2351,10 @@
       <c r="E6">
         <v>300</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="30" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="8">
@@ -2213,10 +2389,10 @@
       <c r="E7">
         <v>300</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="31" t="s">
         <v>84</v>
       </c>
       <c r="H7" s="8">
@@ -2251,10 +2427,10 @@
       <c r="E8">
         <v>300</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="29" t="s">
         <v>109</v>
       </c>
       <c r="H8" s="8">
@@ -2280,10 +2456,10 @@
       <c r="E9">
         <v>300</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="29">
         <v>4</v>
       </c>
       <c r="H9" s="8">
@@ -2318,10 +2494,10 @@
       <c r="E10">
         <v>300</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="32" t="s">
         <v>85</v>
       </c>
       <c r="H10">
@@ -2359,7 +2535,7 @@
       <c r="F11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="7" t="s">
         <v>85</v>
       </c>
       <c r="H11">
@@ -2394,10 +2570,10 @@
       <c r="E12">
         <v>300</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H12">
@@ -2432,10 +2608,10 @@
       <c r="E13">
         <v>300</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="29">
         <v>5</v>
       </c>
       <c r="N13" t="s">
@@ -2458,10 +2634,10 @@
       <c r="E14">
         <v>300</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="30">
         <v>6</v>
       </c>
       <c r="N14" t="s">
@@ -2484,10 +2660,10 @@
       <c r="E15">
         <v>300</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="30">
         <v>4</v>
       </c>
       <c r="P15" s="15">
@@ -2507,10 +2683,10 @@
       <c r="E16">
         <v>300</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="30">
         <v>3</v>
       </c>
       <c r="N16" t="s">
@@ -2533,10 +2709,10 @@
       <c r="E17">
         <v>300</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="31">
         <v>7</v>
       </c>
       <c r="N17" t="s">
@@ -2566,7 +2742,7 @@
       <c r="G19">
         <v>4</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="28" t="s">
         <v>357</v>
       </c>
     </row>
@@ -2589,7 +2765,7 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="28" t="s">
         <v>358</v>
       </c>
     </row>
@@ -2609,10 +2785,10 @@
       <c r="E22" s="7">
         <v>512</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="28">
         <v>4</v>
       </c>
       <c r="I22">
@@ -2638,10 +2814,10 @@
       <c r="E23" s="7">
         <v>512</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="33" t="s">
         <v>121</v>
       </c>
       <c r="N23" t="s">
@@ -2662,7 +2838,7 @@
       <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="28">
         <v>300</v>
       </c>
       <c r="F25" s="17" t="s">
@@ -2695,9 +2871,9 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="7">
+        <v>386</v>
+      </c>
+      <c r="E26" s="28">
         <v>512</v>
       </c>
       <c r="F26" s="17" t="s">
@@ -2726,49 +2902,16 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="8">
-        <v>300</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>500</v>
-      </c>
-      <c r="J27" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>353</v>
-      </c>
+      <c r="C27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
@@ -2777,7 +2920,7 @@
         <v>42</v>
       </c>
       <c r="E28" s="8">
-        <v>512</v>
+        <v>300</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>46</v>
@@ -2789,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J28" t="s">
         <v>52</v>
@@ -2798,47 +2941,59 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="8">
+        <v>512</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>300</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
         <v>125</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
         <v>57</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>53</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>54</v>
-      </c>
-      <c r="E30">
-        <v>512</v>
-      </c>
-      <c r="F30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>61</v>
       </c>
       <c r="E31">
         <v>512</v>
@@ -2856,36 +3011,39 @@
         <v>59</v>
       </c>
       <c r="N31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32">
+        <v>512</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34">
-        <v>300</v>
-      </c>
-      <c r="F34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
       <c r="C35" t="s">
         <v>63</v>
       </c>
@@ -2893,12 +3051,35 @@
         <v>64</v>
       </c>
       <c r="E35">
-        <v>512</v>
+        <v>300</v>
       </c>
       <c r="F35" t="s">
         <v>46</v>
       </c>
       <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36">
+        <v>512</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36">
         <v>1</v>
       </c>
     </row>
@@ -2910,6 +3091,1411 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="34">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="34">
+        <v>300</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" s="34">
+        <v>4</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="34">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="34">
+        <v>300</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="34">
+        <v>4</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="34">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="34">
+        <v>300</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="34">
+        <v>4</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="34">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="34">
+        <v>300</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" s="34">
+        <v>4</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="36">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="36">
+        <v>300</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="36">
+        <v>4</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="34">
+        <v>6</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="34">
+        <v>300</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="34">
+        <v>4</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="34">
+        <v>7</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="34">
+        <v>300</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="F9" s="34">
+        <v>4</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="34">
+        <v>8</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="34">
+        <v>300</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="34">
+        <v>4</v>
+      </c>
+      <c r="F10" s="34">
+        <v>4</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="34">
+        <v>9</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="34">
+        <v>300</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="F11" s="34">
+        <v>4</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="36">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" s="36">
+        <v>300</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" s="36">
+        <v>4</v>
+      </c>
+      <c r="F12" s="36">
+        <v>4</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="34">
+        <v>11</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="34">
+        <v>300</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" s="34">
+        <v>5</v>
+      </c>
+      <c r="F13" s="34">
+        <v>4</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="34">
+        <v>12</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14" s="34">
+        <v>300</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" s="34">
+        <v>3</v>
+      </c>
+      <c r="F14" s="34">
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="34">
+        <v>13</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C15" s="34">
+        <v>300</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E15" s="34">
+        <v>6</v>
+      </c>
+      <c r="F15" s="34">
+        <v>4</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="34">
+        <v>14</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="34">
+        <v>300</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E16" s="34">
+        <v>7</v>
+      </c>
+      <c r="F16" s="34">
+        <v>4</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="36">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="36">
+        <v>512</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="E17" s="36">
+        <v>4</v>
+      </c>
+      <c r="F17" s="36">
+        <v>4</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="36">
+        <v>16</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" s="36">
+        <v>512</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="F18" s="36">
+        <v>4</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="34">
+        <v>17</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="34">
+        <v>300</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E19" s="34">
+        <v>4</v>
+      </c>
+      <c r="F19" s="34">
+        <v>8</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="34">
+        <v>18</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="34">
+        <v>512</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E20" s="34">
+        <v>4</v>
+      </c>
+      <c r="F20" s="34">
+        <v>8</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="34">
+        <v>19</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="34">
+        <v>300</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" s="34">
+        <v>8</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="34">
+        <v>20</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="34">
+        <v>512</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="F22" s="34">
+        <v>8</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="34">
+        <v>21</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="C23" s="34">
+        <v>300</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="E23" s="34">
+        <v>4</v>
+      </c>
+      <c r="F23" s="34">
+        <v>4</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H23" t="s">
+        <v>388</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="34">
+        <v>22</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" s="34">
+        <v>300</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="E24" s="34">
+        <v>4</v>
+      </c>
+      <c r="F24" s="34">
+        <v>4</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H24" t="s">
+        <v>389</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="34">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:19">
+      <c r="B3" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="K3" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="34">
+        <v>5</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="34">
+        <v>300</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" s="34">
+        <v>4</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4" s="34">
+        <v>10</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="M4" s="34">
+        <v>300</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="O4" s="34">
+        <v>4</v>
+      </c>
+      <c r="P4" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="34">
+        <v>6</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="34">
+        <v>300</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="34">
+        <v>4</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="K5" s="36">
+        <v>5</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="M5" s="36">
+        <v>300</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="P5" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="34">
+        <v>7</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="34">
+        <v>300</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" s="34">
+        <v>4</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="K6" s="34">
+        <v>15</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="M6" s="34">
+        <v>512</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="O6" s="34">
+        <v>4</v>
+      </c>
+      <c r="P6" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="K7" s="36">
+        <v>16</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="M7" s="36">
+        <v>512</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="P7" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="L11" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="34">
+        <v>1</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" s="34">
+        <v>300</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="34">
+        <v>4</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="K12" s="36">
+        <v>10</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="M12" s="36">
+        <v>300</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="O12" s="36">
+        <v>4</v>
+      </c>
+      <c r="P12" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="S12" s="34"/>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="34">
+        <v>2</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" s="34">
+        <v>300</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="G13" s="34">
+        <v>4</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="K13" s="36">
+        <v>15</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="M13" s="36">
+        <v>512</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="O13" s="36">
+        <v>4</v>
+      </c>
+      <c r="P13" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="S13" s="34"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="34">
+        <v>3</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" s="34">
+        <v>300</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="G14" s="34">
+        <v>4</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="K14" s="34">
+        <v>17</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="34">
+        <v>300</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="O14" s="34">
+        <v>4</v>
+      </c>
+      <c r="P14" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="34">
+        <v>4</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D15" s="34">
+        <v>300</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="G15" s="34">
+        <v>4</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="K15" s="34">
+        <v>18</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="34">
+        <v>512</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="O15" s="34">
+        <v>4</v>
+      </c>
+      <c r="P15" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="34">
+        <v>7</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D18" s="34">
+        <v>300</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="G18" s="34">
+        <v>4</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="34">
+        <v>8</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D19" s="34">
+        <v>300</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="F19" s="34">
+        <v>4</v>
+      </c>
+      <c r="G19" s="34">
+        <v>4</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="K19" s="36">
+        <v>10</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="M19" s="36">
+        <v>300</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="O19" s="36">
+        <v>4</v>
+      </c>
+      <c r="P19" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="34">
+        <v>9</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" s="34">
+        <v>300</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="G20" s="34">
+        <v>4</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="K20" s="34">
+        <v>21</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="M20" s="34">
+        <v>300</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="O20" s="34">
+        <v>4</v>
+      </c>
+      <c r="P20" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="R20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="K21" s="34">
+        <v>22</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="M21" s="34">
+        <v>300</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="O21" s="34">
+        <v>4</v>
+      </c>
+      <c r="P21" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="R21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="34">
+        <v>10</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D22" s="34">
+        <v>300</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="F22" s="34">
+        <v>4</v>
+      </c>
+      <c r="G22" s="34">
+        <v>4</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="34">
+        <v>11</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" s="34">
+        <v>300</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="34">
+        <v>5</v>
+      </c>
+      <c r="G23" s="34">
+        <v>4</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="34">
+        <v>12</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="34">
+        <v>300</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" s="34">
+        <v>3</v>
+      </c>
+      <c r="G24" s="34">
+        <v>4</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="34">
+        <v>13</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D25" s="34">
+        <v>300</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="34">
+        <v>6</v>
+      </c>
+      <c r="G25" s="34">
+        <v>4</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="34">
+        <v>14</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="D26" s="34">
+        <v>300</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="F26" s="34">
+        <v>7</v>
+      </c>
+      <c r="G26" s="34">
+        <v>4</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="L11:S11"/>
+    <mergeCell ref="K18:R18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N21"/>
   <sheetViews>
@@ -3139,7 +4725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F4"/>
   <sheetViews>
@@ -3193,7 +4779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:R35"/>
   <sheetViews>

--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="结果统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="405">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1407,7 +1407,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gpu</t>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召回率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多尺度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1415,8 +1451,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1463,7 +1500,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1488,8 +1525,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1575,11 +1618,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1626,17 +1749,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1647,13 +1761,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1977,16 +2141,16 @@
       </c>
     </row>
     <row r="4" spans="4:11">
-      <c r="D4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="34" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2003,10 +2167,10 @@
       </c>
     </row>
     <row r="5" spans="4:11">
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2021,16 +2185,16 @@
       </c>
     </row>
     <row r="6" spans="4:11">
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="34" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2047,10 +2211,10 @@
       </c>
     </row>
     <row r="7" spans="4:11">
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2065,16 +2229,16 @@
       </c>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="34" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2091,10 +2255,10 @@
       </c>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2275,10 +2439,10 @@
       <c r="E4">
         <v>300</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="26" t="s">
         <v>44</v>
       </c>
       <c r="H4">
@@ -2313,10 +2477,10 @@
       <c r="E5">
         <v>300</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="27" t="s">
         <v>45</v>
       </c>
       <c r="H5">
@@ -2351,10 +2515,10 @@
       <c r="E6">
         <v>300</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="27" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="8">
@@ -2389,10 +2553,10 @@
       <c r="E7">
         <v>300</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="28" t="s">
         <v>84</v>
       </c>
       <c r="H7" s="8">
@@ -2427,10 +2591,10 @@
       <c r="E8">
         <v>300</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="26" t="s">
         <v>109</v>
       </c>
       <c r="H8" s="8">
@@ -2456,10 +2620,10 @@
       <c r="E9">
         <v>300</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="26">
         <v>4</v>
       </c>
       <c r="H9" s="8">
@@ -2497,7 +2661,7 @@
       <c r="F10" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="29" t="s">
         <v>85</v>
       </c>
       <c r="H10">
@@ -2570,7 +2734,7 @@
       <c r="E12">
         <v>300</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="29" t="s">
         <v>98</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -2608,10 +2772,10 @@
       <c r="E13">
         <v>300</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="26">
         <v>5</v>
       </c>
       <c r="N13" t="s">
@@ -2634,10 +2798,10 @@
       <c r="E14">
         <v>300</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="27">
         <v>6</v>
       </c>
       <c r="N14" t="s">
@@ -2660,10 +2824,10 @@
       <c r="E15">
         <v>300</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="27">
         <v>4</v>
       </c>
       <c r="P15" s="15">
@@ -2683,10 +2847,10 @@
       <c r="E16">
         <v>300</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="27">
         <v>3</v>
       </c>
       <c r="N16" t="s">
@@ -2709,10 +2873,10 @@
       <c r="E17">
         <v>300</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="28">
         <v>7</v>
       </c>
       <c r="N17" t="s">
@@ -2742,7 +2906,7 @@
       <c r="G19">
         <v>4</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="25" t="s">
         <v>357</v>
       </c>
     </row>
@@ -2765,7 +2929,7 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="25" t="s">
         <v>358</v>
       </c>
     </row>
@@ -2785,10 +2949,10 @@
       <c r="E22" s="7">
         <v>512</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="25">
         <v>4</v>
       </c>
       <c r="I22">
@@ -2814,10 +2978,10 @@
       <c r="E23" s="7">
         <v>512</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="30" t="s">
         <v>121</v>
       </c>
       <c r="N23" t="s">
@@ -2838,7 +3002,7 @@
       <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="25">
         <v>300</v>
       </c>
       <c r="F25" s="17" t="s">
@@ -2873,7 +3037,7 @@
       <c r="D26" t="s">
         <v>386</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="25">
         <v>512</v>
       </c>
       <c r="F26" s="17" t="s">
@@ -3092,10 +3256,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I25"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3109,631 +3273,1690 @@
     <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="34" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="24" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="34">
+      <c r="I2" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="C3" s="34">
-        <v>300</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="24">
+        <v>300</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="F3" s="34">
-        <v>4</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="F3" s="24">
+        <v>4</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="24" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="34">
+      <c r="I3" s="48">
+        <v>300</v>
+      </c>
+      <c r="J3" s="50">
+        <v>57.991</v>
+      </c>
+      <c r="K3" s="50">
+        <v>68.872</v>
+      </c>
+      <c r="L3" s="50">
+        <f>2/(1/J3+1/K3)</f>
+        <v>62.964870009380199</v>
+      </c>
+      <c r="M3" s="48">
+        <v>512</v>
+      </c>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50" t="e">
+        <f>2/(1/N3+1/O3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="48">
+        <v>700</v>
+      </c>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50" t="e">
+        <f>2/(1/R3+1/S3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U3" s="48">
+        <v>700</v>
+      </c>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50" t="e">
+        <f>2/(1/V3+1/W3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="34">
-        <v>300</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="24">
+        <v>300</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="F4" s="34">
-        <v>4</v>
-      </c>
-      <c r="G4" s="34" t="s">
+      <c r="F4" s="24">
+        <v>4</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="24" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="34">
+      <c r="I4" s="48">
+        <v>300</v>
+      </c>
+      <c r="J4" s="50">
+        <v>59.725999999999999</v>
+      </c>
+      <c r="K4" s="50">
+        <v>70.55</v>
+      </c>
+      <c r="L4" s="50">
+        <f t="shared" ref="L4:L22" si="0">2/(1/J4+1/K4)</f>
+        <v>64.688343209800735</v>
+      </c>
+      <c r="M4" s="48">
+        <v>512</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50" t="e">
+        <f t="shared" ref="P4:P15" si="1">2/(1/N4+1/O4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="48">
+        <v>700</v>
+      </c>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50" t="e">
+        <f t="shared" ref="T4:T14" si="2">2/(1/R4+1/S4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U4" s="48">
+        <v>700</v>
+      </c>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50" t="e">
+        <f t="shared" ref="X4:X14" si="3">2/(1/V4+1/W4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="34">
-        <v>300</v>
-      </c>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="24">
+        <v>300</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="F5" s="34">
-        <v>4</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="24">
+        <v>4</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="24" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="34">
-        <v>4</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="I5" s="48">
+        <v>300</v>
+      </c>
+      <c r="J5" s="50">
+        <v>58.539000000000001</v>
+      </c>
+      <c r="K5" s="50">
+        <v>68.337000000000003</v>
+      </c>
+      <c r="L5" s="50">
+        <f t="shared" si="0"/>
+        <v>63.059674690248748</v>
+      </c>
+      <c r="M5" s="48">
+        <v>512</v>
+      </c>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>700</v>
+      </c>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U5" s="48">
+        <v>700</v>
+      </c>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="24">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C6" s="34">
-        <v>300</v>
-      </c>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="24">
+        <v>300</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="F6" s="34">
-        <v>4</v>
-      </c>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="24">
+        <v>4</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="24" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="36">
+      <c r="I6" s="48">
+        <v>300</v>
+      </c>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="48">
+        <v>512</v>
+      </c>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>700</v>
+      </c>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U6" s="48">
+        <v>700</v>
+      </c>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="51">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="C7" s="36">
-        <v>300</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="51">
+        <v>300</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="36">
-        <v>4</v>
-      </c>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="51">
+        <v>4</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="51" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="34">
+      <c r="I7" s="48">
+        <v>300</v>
+      </c>
+      <c r="J7" s="50">
+        <v>64.658000000000001</v>
+      </c>
+      <c r="K7" s="50">
+        <v>79.283000000000001</v>
+      </c>
+      <c r="L7" s="50">
+        <f t="shared" si="0"/>
+        <v>71.227519803252719</v>
+      </c>
+      <c r="M7" s="48">
+        <v>512</v>
+      </c>
+      <c r="N7" s="50">
+        <v>65.936000000000007</v>
+      </c>
+      <c r="O7" s="50">
+        <v>49.183</v>
+      </c>
+      <c r="P7" s="50">
+        <f t="shared" si="1"/>
+        <v>56.340487460801434</v>
+      </c>
+      <c r="Q7" s="48">
+        <v>700</v>
+      </c>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U7" s="48">
+        <v>700</v>
+      </c>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="24">
         <v>6</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C8" s="34">
-        <v>300</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="24">
+        <v>300</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="34">
-        <v>4</v>
-      </c>
-      <c r="G8" s="34" t="s">
+      <c r="F8" s="24">
+        <v>4</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="24" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="34">
+      <c r="I8" s="48">
+        <v>300</v>
+      </c>
+      <c r="J8" s="50">
+        <v>57.533999999999999</v>
+      </c>
+      <c r="K8" s="50">
+        <v>70.549000000000007</v>
+      </c>
+      <c r="L8" s="50">
+        <f t="shared" si="0"/>
+        <v>63.380248214048713</v>
+      </c>
+      <c r="M8" s="48">
+        <v>512</v>
+      </c>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="48">
+        <v>700</v>
+      </c>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U8" s="48">
+        <v>700</v>
+      </c>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="24">
         <v>7</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C9" s="34">
-        <v>300</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="24">
+        <v>300</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="F9" s="34">
-        <v>4</v>
-      </c>
-      <c r="G9" s="34" t="s">
+      <c r="F9" s="24">
+        <v>4</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="24" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="34">
+      <c r="I9" s="48">
+        <v>300</v>
+      </c>
+      <c r="J9" s="50">
+        <v>62.192</v>
+      </c>
+      <c r="K9" s="50">
+        <v>74.671000000000006</v>
+      </c>
+      <c r="L9" s="50">
+        <v>67.861999999999995</v>
+      </c>
+      <c r="M9" s="48">
+        <v>512</v>
+      </c>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="48">
+        <v>700</v>
+      </c>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" s="48">
+        <v>700</v>
+      </c>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="24">
         <v>8</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C10" s="34">
-        <v>300</v>
-      </c>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="24">
+        <v>300</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="E10" s="34">
-        <v>4</v>
-      </c>
-      <c r="F10" s="34">
-        <v>4</v>
-      </c>
-      <c r="G10" s="34" t="s">
+      <c r="E10" s="24">
+        <v>4</v>
+      </c>
+      <c r="F10" s="24">
+        <v>4</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="24" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="34">
+      <c r="I10" s="48">
+        <v>300</v>
+      </c>
+      <c r="J10" s="50">
+        <v>63.47</v>
+      </c>
+      <c r="K10" s="50">
+        <v>76.373999999999995</v>
+      </c>
+      <c r="L10" s="50">
+        <f t="shared" si="0"/>
+        <v>69.326646549011755</v>
+      </c>
+      <c r="M10" s="48">
+        <v>512</v>
+      </c>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="48">
+        <v>700</v>
+      </c>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" s="48">
+        <v>700</v>
+      </c>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="24">
         <v>9</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="34">
-        <v>300</v>
-      </c>
-      <c r="D11" s="34" t="s">
+      <c r="C11" s="24">
+        <v>300</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="F11" s="34">
-        <v>4</v>
-      </c>
-      <c r="G11" s="34" t="s">
+      <c r="F11" s="24">
+        <v>4</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="24" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="36">
+      <c r="I11" s="48">
+        <v>300</v>
+      </c>
+      <c r="J11" s="50">
+        <v>60.274000000000001</v>
+      </c>
+      <c r="K11" s="50">
+        <v>66.198999999999998</v>
+      </c>
+      <c r="L11" s="50">
+        <v>63.097999999999999</v>
+      </c>
+      <c r="M11" s="48">
+        <v>512</v>
+      </c>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="48">
+        <v>700</v>
+      </c>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" s="48">
+        <v>700</v>
+      </c>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="51">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="C12" s="36">
-        <v>300</v>
-      </c>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="51">
+        <v>300</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="E12" s="36">
-        <v>4</v>
-      </c>
-      <c r="F12" s="36">
-        <v>4</v>
-      </c>
-      <c r="G12" s="36" t="s">
+      <c r="E12" s="51">
+        <v>4</v>
+      </c>
+      <c r="F12" s="51">
+        <v>4</v>
+      </c>
+      <c r="G12" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="51" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="34">
+      <c r="I12" s="48">
+        <v>300</v>
+      </c>
+      <c r="J12" s="50">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="K12" s="50">
+        <v>79.606999999999999</v>
+      </c>
+      <c r="L12" s="50">
+        <f t="shared" si="0"/>
+        <v>72.564637174070583</v>
+      </c>
+      <c r="M12" s="48">
+        <v>512</v>
+      </c>
+      <c r="N12" s="50">
+        <v>65.936000000000007</v>
+      </c>
+      <c r="O12" s="50">
+        <v>58.843000000000004</v>
+      </c>
+      <c r="P12" s="50">
+        <f t="shared" si="1"/>
+        <v>62.187900976927203</v>
+      </c>
+      <c r="Q12" s="48">
+        <v>700</v>
+      </c>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="48">
+        <v>700</v>
+      </c>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="24">
         <v>11</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C13" s="34">
-        <v>300</v>
-      </c>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="24">
+        <v>300</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="24">
         <v>5</v>
       </c>
-      <c r="F13" s="34">
-        <v>4</v>
-      </c>
-      <c r="G13" s="34" t="s">
+      <c r="F13" s="24">
+        <v>4</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="24" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="34">
+      <c r="I13" s="48">
+        <v>300</v>
+      </c>
+      <c r="J13" s="50">
+        <v>65.022999999999996</v>
+      </c>
+      <c r="K13" s="50">
+        <v>80.451999999999998</v>
+      </c>
+      <c r="L13" s="50">
+        <f t="shared" si="0"/>
+        <v>71.919304292833814</v>
+      </c>
+      <c r="M13" s="48">
+        <v>512</v>
+      </c>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="48">
+        <v>700</v>
+      </c>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="48">
+        <v>700</v>
+      </c>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="24">
         <v>12</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="34">
-        <v>300</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="24">
+        <v>300</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="24">
         <v>3</v>
       </c>
-      <c r="F14" s="34">
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="24">
+        <v>4</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="24" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="34">
+      <c r="I14" s="48">
+        <v>300</v>
+      </c>
+      <c r="J14" s="50">
+        <v>65.844999999999999</v>
+      </c>
+      <c r="K14" s="50">
+        <v>79.144000000000005</v>
+      </c>
+      <c r="L14" s="50">
+        <f t="shared" si="0"/>
+        <v>71.884579933650144</v>
+      </c>
+      <c r="M14" s="48">
+        <v>512</v>
+      </c>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="48">
+        <v>700</v>
+      </c>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="48">
+        <v>700</v>
+      </c>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="24">
         <v>13</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C15" s="34">
-        <v>300</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="C15" s="24">
+        <v>300</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="24">
         <v>6</v>
       </c>
-      <c r="F15" s="34">
-        <v>4</v>
-      </c>
-      <c r="G15" s="34" t="s">
+      <c r="F15" s="24">
+        <v>4</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="24" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="34">
+      <c r="I15" s="48">
+        <v>300</v>
+      </c>
+      <c r="J15" s="50">
+        <v>64.932000000000002</v>
+      </c>
+      <c r="K15" s="50">
+        <v>76.287999999999997</v>
+      </c>
+      <c r="L15" s="50">
+        <f t="shared" si="0"/>
+        <v>70.153411924656567</v>
+      </c>
+      <c r="M15" s="48">
+        <v>512</v>
+      </c>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="48">
+        <v>700</v>
+      </c>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50" t="e">
+        <f t="shared" ref="T12:T26" si="4">2/(1/R15+1/S15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" s="48">
+        <v>700</v>
+      </c>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50" t="e">
+        <f t="shared" ref="X12:X26" si="5">2/(1/V15+1/W15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="24">
         <v>14</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="34">
-        <v>300</v>
-      </c>
-      <c r="D16" s="34" t="s">
+      <c r="C16" s="24">
+        <v>300</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="24">
         <v>7</v>
       </c>
-      <c r="F16" s="34">
-        <v>4</v>
-      </c>
-      <c r="G16" s="34" t="s">
+      <c r="F16" s="24">
+        <v>4</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="24" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="36">
+      <c r="I16" s="48">
+        <v>300</v>
+      </c>
+      <c r="J16" s="50">
+        <v>64.748999999999995</v>
+      </c>
+      <c r="K16" s="50">
+        <v>78.429000000000002</v>
+      </c>
+      <c r="L16" s="50">
+        <f t="shared" si="0"/>
+        <v>70.935469429660984</v>
+      </c>
+      <c r="M16" s="48">
+        <v>512</v>
+      </c>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50" t="e">
+        <f t="shared" ref="P12:P26" si="6">2/(1/N16+1/O16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="48">
+        <v>700</v>
+      </c>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" s="48">
+        <v>700</v>
+      </c>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="51">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="51">
         <v>512</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="E17" s="36">
-        <v>4</v>
-      </c>
-      <c r="F17" s="36">
-        <v>4</v>
-      </c>
-      <c r="G17" s="36" t="s">
+      <c r="E17" s="51">
+        <v>4</v>
+      </c>
+      <c r="F17" s="51">
+        <v>4</v>
+      </c>
+      <c r="G17" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="51" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="36">
+      <c r="I17" s="48">
+        <v>300</v>
+      </c>
+      <c r="J17" s="50">
+        <v>63.014000000000003</v>
+      </c>
+      <c r="K17" s="50">
+        <v>80.046000000000006</v>
+      </c>
+      <c r="L17" s="50">
+        <f t="shared" si="0"/>
+        <v>70.516128114078015</v>
+      </c>
+      <c r="M17" s="48">
+        <v>512</v>
+      </c>
+      <c r="N17" s="50">
+        <v>73.150999999999996</v>
+      </c>
+      <c r="O17" s="50">
+        <v>81.236999999999995</v>
+      </c>
+      <c r="P17" s="50">
+        <f t="shared" si="6"/>
+        <v>76.982249747389687</v>
+      </c>
+      <c r="Q17" s="48">
+        <v>700</v>
+      </c>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" s="48">
+        <v>700</v>
+      </c>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="51">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="51">
         <v>512</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="F18" s="36">
-        <v>4</v>
-      </c>
-      <c r="G18" s="36" t="s">
+      <c r="F18" s="51">
+        <v>4</v>
+      </c>
+      <c r="G18" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="48">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="34">
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="48">
+        <v>512</v>
+      </c>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="48">
+        <v>700</v>
+      </c>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" s="48">
+        <v>700</v>
+      </c>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="24">
         <v>17</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="34">
-        <v>300</v>
-      </c>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="24">
+        <v>300</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="E19" s="34">
-        <v>4</v>
-      </c>
-      <c r="F19" s="34">
+      <c r="E19" s="24">
+        <v>4</v>
+      </c>
+      <c r="F19" s="24">
         <v>8</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="48">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="34">
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="48">
+        <v>512</v>
+      </c>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" s="48">
+        <v>700</v>
+      </c>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" s="48">
+        <v>700</v>
+      </c>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="52">
         <v>18</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="52">
         <v>512</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="52" t="s">
         <v>390</v>
       </c>
-      <c r="E20" s="34">
-        <v>4</v>
-      </c>
-      <c r="F20" s="34">
+      <c r="E20" s="52">
+        <v>4</v>
+      </c>
+      <c r="F20" s="52">
         <v>8</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="48" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="34">
+      <c r="J20" s="50">
+        <v>69.588999999999999</v>
+      </c>
+      <c r="K20" s="50">
+        <v>81.671999999999997</v>
+      </c>
+      <c r="L20" s="50">
+        <v>75.147999999999996</v>
+      </c>
+      <c r="M20" s="48">
+        <v>512</v>
+      </c>
+      <c r="N20" s="50">
+        <v>81.096000000000004</v>
+      </c>
+      <c r="O20" s="50">
+        <v>84.171000000000006</v>
+      </c>
+      <c r="P20" s="50">
+        <f t="shared" si="6"/>
+        <v>82.604892882426626</v>
+      </c>
+      <c r="Q20" s="48">
+        <v>700</v>
+      </c>
+      <c r="R20" s="50">
+        <v>82.647999999999996</v>
+      </c>
+      <c r="S20" s="50">
+        <v>80.302000000000007</v>
+      </c>
+      <c r="T20" s="50">
+        <f t="shared" si="4"/>
+        <v>81.458112255293031</v>
+      </c>
+      <c r="U20" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="24">
         <v>19</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="34">
-        <v>300</v>
-      </c>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="24">
+        <v>300</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="24">
         <v>8</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="34">
+      <c r="I21" s="48">
+        <v>4</v>
+      </c>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="48">
+        <v>512</v>
+      </c>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" s="48">
+        <v>700</v>
+      </c>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" s="48">
+        <v>700</v>
+      </c>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="24">
         <v>20</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="24">
         <v>512</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="24">
         <v>8</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="48">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="34">
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="48">
+        <v>512</v>
+      </c>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="48">
+        <v>700</v>
+      </c>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" s="48">
+        <v>700</v>
+      </c>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="24">
         <v>21</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C23" s="34">
-        <v>300</v>
-      </c>
-      <c r="D23" s="34" t="s">
+      <c r="C23" s="24">
+        <v>300</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="E23" s="34">
-        <v>4</v>
-      </c>
-      <c r="F23" s="34">
-        <v>4</v>
-      </c>
-      <c r="G23" s="34" t="s">
+      <c r="E23" s="24">
+        <v>4</v>
+      </c>
+      <c r="F23" s="24">
+        <v>4</v>
+      </c>
+      <c r="G23" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="48" t="s">
         <v>388</v>
       </c>
-      <c r="I23" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="34">
+      <c r="I23" s="24"/>
+      <c r="J23" s="50">
+        <v>67.944999999999993</v>
+      </c>
+      <c r="K23" s="50">
+        <v>79.317999999999998</v>
+      </c>
+      <c r="L23" s="50">
+        <f t="shared" ref="L23:L26" si="7">2/(1/J23+1/K23)</f>
+        <v>73.192336296286229</v>
+      </c>
+      <c r="M23" s="48">
+        <v>512</v>
+      </c>
+      <c r="N23" s="50">
+        <v>69.224000000000004</v>
+      </c>
+      <c r="O23" s="50">
+        <v>37.212000000000003</v>
+      </c>
+      <c r="P23" s="50">
+        <f t="shared" si="6"/>
+        <v>48.403989026269308</v>
+      </c>
+      <c r="Q23" s="48">
+        <v>700</v>
+      </c>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" s="48">
+        <v>700</v>
+      </c>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="24">
         <v>22</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C24" s="34">
-        <v>300</v>
-      </c>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="24">
+        <v>300</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="E24" s="34">
-        <v>4</v>
-      </c>
-      <c r="F24" s="34">
-        <v>4</v>
-      </c>
-      <c r="G24" s="34" t="s">
+      <c r="E24" s="24">
+        <v>4</v>
+      </c>
+      <c r="F24" s="24">
+        <v>4</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="48" t="s">
         <v>389</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="24"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="48">
+        <v>512</v>
+      </c>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="48">
+        <v>700</v>
+      </c>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="48">
+        <v>700</v>
+      </c>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="24">
+        <v>23</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" s="51">
+        <v>300</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="E25" s="51" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="34">
-        <v>23</v>
+      <c r="F25" s="51">
+        <v>4</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="48">
+        <v>512</v>
+      </c>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="48">
+        <v>700</v>
+      </c>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" s="48">
+        <v>700</v>
+      </c>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="24">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" s="6">
+        <v>300</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4</v>
+      </c>
+      <c r="F26" s="6">
+        <v>4</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="48">
+        <v>512</v>
+      </c>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="48">
+        <v>700</v>
+      </c>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="48">
+        <v>700</v>
+      </c>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="V1:X1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3744,8 +4967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3768,557 +4991,568 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="K3" s="35" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="K3" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="34">
+      <c r="B4" s="31">
+        <v>7</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="31">
+        <v>300</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" s="31">
+        <v>4</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4" s="31">
+        <v>10</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="M4" s="31">
+        <v>300</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="O4" s="31">
+        <v>4</v>
+      </c>
+      <c r="P4" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="31">
+        <v>6</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="31">
+        <v>300</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="31">
+        <v>4</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="K5" s="32">
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="L5" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="34">
-        <v>300</v>
-      </c>
-      <c r="E4" s="34" t="s">
+      <c r="M5" s="32">
+        <v>300</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="P5" s="32">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="47">
+        <v>5</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="47">
+        <v>300</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F6" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="G4" s="34">
-        <v>4</v>
-      </c>
-      <c r="H4" s="34" t="s">
+      <c r="G6" s="47">
+        <v>4</v>
+      </c>
+      <c r="H6" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I6" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K6" s="31">
+        <v>15</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="M6" s="31">
+        <v>512</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="O6" s="31">
+        <v>4</v>
+      </c>
+      <c r="P6" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="K7" s="32">
+        <v>16</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="M7" s="32">
+        <v>512</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="P7" s="32">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="L11" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="31">
+        <v>2</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" s="31">
+        <v>300</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="G12" s="31">
+        <v>4</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="K12" s="32">
         <v>10</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L12" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="M4" s="34">
-        <v>300</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="O4" s="34">
-        <v>4</v>
-      </c>
-      <c r="P4" s="34">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="34" t="s">
+      <c r="M12" s="32">
+        <v>300</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="O12" s="32">
+        <v>4</v>
+      </c>
+      <c r="P12" s="32">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R12" s="32" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="34">
-        <v>6</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="S12" s="31"/>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="31">
+        <v>3</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="D5" s="34">
-        <v>300</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="34">
-        <v>4</v>
-      </c>
-      <c r="H5" s="34" t="s">
+      <c r="D13" s="31">
+        <v>300</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="31">
+        <v>4</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I13" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="K5" s="36">
-        <v>5</v>
-      </c>
-      <c r="L5" s="36" t="s">
+      <c r="K13" s="31">
+        <v>17</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="31">
+        <v>300</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="O13" s="31">
+        <v>4</v>
+      </c>
+      <c r="P13" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="S13" s="31"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="31">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" s="31">
+        <v>300</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="31">
+        <v>4</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="K14" s="32">
+        <v>15</v>
+      </c>
+      <c r="L14" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="M5" s="36">
-        <v>300</v>
-      </c>
-      <c r="N5" s="36" t="s">
+      <c r="M14" s="32">
+        <v>512</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="O14" s="32">
+        <v>4</v>
+      </c>
+      <c r="P14" s="32">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="31">
+        <v>4</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="D15" s="31">
+        <v>300</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="G15" s="31">
+        <v>4</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="K15" s="31">
+        <v>18</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="31">
+        <v>512</v>
+      </c>
+      <c r="N15" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O15" s="31">
+        <v>4</v>
+      </c>
+      <c r="P15" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="R15" s="31" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="42">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="2">
+        <v>300</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="2:18" ht="15" thickBot="1"/>
+    <row r="18" spans="2:18">
+      <c r="B18" s="39">
+        <v>7</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="D18" s="40">
+        <v>300</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="F18" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="P5" s="36">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="36" t="s">
+      <c r="G18" s="40">
+        <v>4</v>
+      </c>
+      <c r="H18" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="I18" s="41" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="34">
-        <v>7</v>
-      </c>
-      <c r="C6" s="34" t="s">
+    <row r="19" spans="2:18">
+      <c r="B19" s="42">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="34">
-        <v>300</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="D19" s="2">
+        <v>300</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" s="34">
-        <v>4</v>
-      </c>
-      <c r="H6" s="34" t="s">
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I19" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="K6" s="34">
-        <v>15</v>
-      </c>
-      <c r="L6" s="34" t="s">
+      <c r="K19" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+    </row>
+    <row r="20" spans="2:18" ht="15" thickBot="1">
+      <c r="B20" s="44">
+        <v>9</v>
+      </c>
+      <c r="C20" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="M6" s="34">
-        <v>512</v>
-      </c>
-      <c r="N6" s="34" t="s">
+      <c r="D20" s="45">
+        <v>300</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="G20" s="45">
+        <v>4</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="K20" s="31">
+        <v>21</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="M20" s="31">
+        <v>300</v>
+      </c>
+      <c r="N20" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="O6" s="34">
-        <v>4</v>
-      </c>
-      <c r="P6" s="34">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="R6" s="34" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="K7" s="36">
-        <v>16</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="M7" s="36">
-        <v>512</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="P7" s="36">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="R7" s="36" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="L11" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="34">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="D12" s="34">
-        <v>300</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="G12" s="34">
-        <v>4</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="K12" s="36">
-        <v>10</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="M12" s="36">
-        <v>300</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="O12" s="36">
-        <v>4</v>
-      </c>
-      <c r="P12" s="36">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="S12" s="34"/>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="B13" s="34">
-        <v>2</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="D13" s="34">
-        <v>300</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="G13" s="34">
-        <v>4</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="K13" s="36">
-        <v>15</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="M13" s="36">
-        <v>512</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="O13" s="36">
-        <v>4</v>
-      </c>
-      <c r="P13" s="36">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="R13" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="S13" s="34"/>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="34">
-        <v>3</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="D14" s="34">
-        <v>300</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="G14" s="34">
-        <v>4</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="K14" s="34">
-        <v>17</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="34">
-        <v>300</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="O14" s="34">
-        <v>4</v>
-      </c>
-      <c r="P14" s="34">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="R14" s="34" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="B15" s="34">
-        <v>4</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="D15" s="34">
-        <v>300</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="G15" s="34">
-        <v>4</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="K15" s="34">
-        <v>18</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="34">
-        <v>512</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="O15" s="34">
-        <v>4</v>
-      </c>
-      <c r="P15" s="34">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="R15" s="34" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="34">
-        <v>7</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="D18" s="34">
-        <v>300</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="G18" s="34">
-        <v>4</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="34">
-        <v>8</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="D19" s="34">
-        <v>300</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="F19" s="34">
-        <v>4</v>
-      </c>
-      <c r="G19" s="34">
-        <v>4</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="K19" s="36">
-        <v>10</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="M19" s="36">
-        <v>300</v>
-      </c>
-      <c r="N19" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="O19" s="36">
-        <v>4</v>
-      </c>
-      <c r="P19" s="36">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="R19" s="36" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="34">
-        <v>9</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="D20" s="34">
-        <v>300</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="G20" s="34">
-        <v>4</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="K20" s="34">
-        <v>21</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="M20" s="34">
-        <v>300</v>
-      </c>
-      <c r="N20" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="O20" s="34">
-        <v>4</v>
-      </c>
-      <c r="P20" s="34">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="34" t="s">
+      <c r="O20" s="31">
+        <v>4</v>
+      </c>
+      <c r="P20" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="31" t="s">
         <v>369</v>
       </c>
       <c r="R20" t="s">
@@ -4326,158 +5560,182 @@
       </c>
     </row>
     <row r="21" spans="2:18">
-      <c r="K21" s="34">
+      <c r="K21" s="32">
+        <v>10</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="M21" s="32">
+        <v>300</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="O21" s="32">
+        <v>4</v>
+      </c>
+      <c r="P21" s="32">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="R21" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="31">
+        <v>12</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="D22" s="31">
+        <v>300</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="F22" s="31">
+        <v>3</v>
+      </c>
+      <c r="G22" s="31">
+        <v>4</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="K22" s="31">
         <v>22</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="L22" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="M21" s="34">
-        <v>300</v>
-      </c>
-      <c r="N21" s="34" t="s">
+      <c r="M22" s="31">
+        <v>300</v>
+      </c>
+      <c r="N22" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="O21" s="34">
-        <v>4</v>
-      </c>
-      <c r="P21" s="34">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="34" t="s">
+      <c r="O22" s="31">
+        <v>4</v>
+      </c>
+      <c r="P22" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R22" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="34">
+    <row r="23" spans="2:18">
+      <c r="B23" s="31">
         <v>10</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C23" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="D22" s="34">
-        <v>300</v>
-      </c>
-      <c r="E22" s="34" t="s">
+      <c r="D23" s="31">
+        <v>300</v>
+      </c>
+      <c r="E23" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F22" s="34">
-        <v>4</v>
-      </c>
-      <c r="G22" s="34">
-        <v>4</v>
-      </c>
-      <c r="H22" s="34" t="s">
+      <c r="F23" s="31">
+        <v>4</v>
+      </c>
+      <c r="G23" s="31">
+        <v>4</v>
+      </c>
+      <c r="H23" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I23" s="31" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="2:18">
-      <c r="B23" s="34">
+    <row r="24" spans="2:18">
+      <c r="B24" s="31">
         <v>11</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C24" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="D23" s="34">
-        <v>300</v>
-      </c>
-      <c r="E23" s="34" t="s">
+      <c r="D24" s="31">
+        <v>300</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F24" s="31">
         <v>5</v>
       </c>
-      <c r="G23" s="34">
-        <v>4</v>
-      </c>
-      <c r="H23" s="34" t="s">
+      <c r="G24" s="31">
+        <v>4</v>
+      </c>
+      <c r="H24" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I24" s="31" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="2:18">
-      <c r="B24" s="34">
-        <v>12</v>
-      </c>
-      <c r="C24" s="34" t="s">
+    <row r="25" spans="2:18">
+      <c r="B25" s="31">
+        <v>13</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="D24" s="34">
-        <v>300</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="F24" s="34">
-        <v>3</v>
-      </c>
-      <c r="G24" s="34">
-        <v>4</v>
-      </c>
-      <c r="H24" s="34" t="s">
+      <c r="D25" s="31">
+        <v>300</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="31">
+        <v>6</v>
+      </c>
+      <c r="G25" s="31">
+        <v>4</v>
+      </c>
+      <c r="H25" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I25" s="31" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
-      <c r="B25" s="34">
-        <v>13</v>
-      </c>
-      <c r="C25" s="34" t="s">
+    <row r="26" spans="2:18">
+      <c r="B26" s="31">
+        <v>14</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="D25" s="34">
-        <v>300</v>
-      </c>
-      <c r="E25" s="34" t="s">
+      <c r="D26" s="31">
+        <v>300</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F25" s="34">
-        <v>6</v>
-      </c>
-      <c r="G25" s="34">
-        <v>4</v>
-      </c>
-      <c r="H25" s="34" t="s">
+      <c r="F26" s="31">
+        <v>7</v>
+      </c>
+      <c r="G26" s="31">
+        <v>4</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="I25" s="34" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18">
-      <c r="B26" s="34">
-        <v>14</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="D26" s="34">
-        <v>300</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="F26" s="34">
-        <v>7</v>
-      </c>
-      <c r="G26" s="34">
-        <v>4</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="31" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4487,7 +5745,7 @@
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="K3:R3"/>
     <mergeCell ref="L11:S11"/>
-    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="K19:R19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4500,7 +5758,7 @@
   <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:N5"/>
+      <selection activeCell="N6" sqref="I6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4730,7 +5988,7 @@
   <dimension ref="D2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4784,7 +6042,7 @@
   <dimension ref="C1:R35"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5461,7 +6719,7 @@
       <c r="Q22" s="21"/>
     </row>
     <row r="23" spans="3:18" ht="14.25" customHeight="1">
-      <c r="M23" s="27" t="s">
+      <c r="M23" s="38" t="s">
         <v>339</v>
       </c>
       <c r="N23" s="20" t="s">
@@ -5481,7 +6739,7 @@
       </c>
     </row>
     <row r="24" spans="3:18">
-      <c r="M24" s="27"/>
+      <c r="M24" s="38"/>
       <c r="N24" s="20" t="s">
         <v>171</v>
       </c>
@@ -5499,7 +6757,7 @@
       </c>
     </row>
     <row r="25" spans="3:18">
-      <c r="M25" s="27"/>
+      <c r="M25" s="38"/>
       <c r="N25" s="23" t="s">
         <v>345</v>
       </c>
@@ -5517,7 +6775,7 @@
       </c>
     </row>
     <row r="26" spans="3:18">
-      <c r="M26" s="27"/>
+      <c r="M26" s="38"/>
       <c r="N26" s="23" t="s">
         <v>347</v>
       </c>

--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="415">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1446,6 +1446,45 @@
     <t>多尺度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cocoICDAR13SCUT</t>
+  </si>
+  <si>
+    <t>cocoICDAR13SCUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nostep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150k?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nostep?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1453,7 +1492,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1702,7 +1741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1767,20 +1806,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1810,15 +1837,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2141,16 +2183,16 @@
       </c>
     </row>
     <row r="4" spans="4:11">
-      <c r="D4" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="48" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2167,10 +2209,10 @@
       </c>
     </row>
     <row r="5" spans="4:11">
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2185,16 +2227,16 @@
       </c>
     </row>
     <row r="6" spans="4:11">
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="48" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2211,10 +2253,10 @@
       </c>
     </row>
     <row r="7" spans="4:11">
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="35"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2229,16 +2271,16 @@
       </c>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="48" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2255,10 +2297,10 @@
       </c>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="35"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
@@ -3256,10 +3298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3274,38 +3316,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="49" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="49" t="s">
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="24" t="s">
@@ -3406,43 +3448,43 @@
       <c r="H3" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="I3" s="48">
-        <v>300</v>
-      </c>
-      <c r="J3" s="50">
+      <c r="I3" s="44">
+        <v>300</v>
+      </c>
+      <c r="J3" s="45">
         <v>57.991</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="45">
         <v>68.872</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="45">
         <f>2/(1/J3+1/K3)</f>
         <v>62.964870009380199</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="44">
         <v>512</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50" t="e">
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45" t="e">
         <f>2/(1/N3+1/O3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q3" s="48">
+      <c r="Q3" s="44">
         <v>700</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50" t="e">
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45" t="e">
         <f>2/(1/R3+1/S3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U3" s="48">
+      <c r="U3" s="44">
         <v>700</v>
       </c>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50" t="e">
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45" t="e">
         <f>2/(1/V3+1/W3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3472,43 +3514,43 @@
       <c r="H4" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="I4" s="48">
-        <v>300</v>
-      </c>
-      <c r="J4" s="50">
+      <c r="I4" s="44">
+        <v>300</v>
+      </c>
+      <c r="J4" s="45">
         <v>59.725999999999999</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="45">
         <v>70.55</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="45">
         <f t="shared" ref="L4:L22" si="0">2/(1/J4+1/K4)</f>
         <v>64.688343209800735</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="44">
         <v>512</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50" t="e">
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45" t="e">
         <f t="shared" ref="P4:P15" si="1">2/(1/N4+1/O4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="48">
+      <c r="Q4" s="44">
         <v>700</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50" t="e">
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45" t="e">
         <f t="shared" ref="T4:T14" si="2">2/(1/R4+1/S4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U4" s="48">
+      <c r="U4" s="44">
         <v>700</v>
       </c>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50" t="e">
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45" t="e">
         <f t="shared" ref="X4:X14" si="3">2/(1/V4+1/W4)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3538,43 +3580,43 @@
       <c r="H5" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I5" s="48">
-        <v>300</v>
-      </c>
-      <c r="J5" s="50">
+      <c r="I5" s="44">
+        <v>300</v>
+      </c>
+      <c r="J5" s="45">
         <v>58.539000000000001</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="45">
         <v>68.337000000000003</v>
       </c>
-      <c r="L5" s="50">
+      <c r="L5" s="45">
         <f t="shared" si="0"/>
         <v>63.059674690248748</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="44">
         <v>512</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50" t="e">
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="Q5" s="44">
         <v>700</v>
       </c>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50" t="e">
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U5" s="48">
+      <c r="U5" s="44">
         <v>700</v>
       </c>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50" t="e">
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3604,109 +3646,109 @@
       <c r="H6" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I6" s="48">
-        <v>300</v>
-      </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50" t="e">
+      <c r="I6" s="44">
+        <v>300</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="44">
         <v>512</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50" t="e">
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="44">
         <v>700</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50" t="e">
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U6" s="48">
+      <c r="U6" s="44">
         <v>700</v>
       </c>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50" t="e">
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="51">
+      <c r="A7" s="46">
         <v>5</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="C7" s="51">
-        <v>300</v>
-      </c>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="46">
+        <v>300</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="51">
-        <v>4</v>
-      </c>
-      <c r="G7" s="51" t="s">
+      <c r="F7" s="46">
+        <v>4</v>
+      </c>
+      <c r="G7" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="I7" s="48">
-        <v>300</v>
-      </c>
-      <c r="J7" s="50">
+      <c r="I7" s="44">
+        <v>300</v>
+      </c>
+      <c r="J7" s="45">
         <v>64.658000000000001</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="45">
         <v>79.283000000000001</v>
       </c>
-      <c r="L7" s="50">
+      <c r="L7" s="45">
         <f t="shared" si="0"/>
         <v>71.227519803252719</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="44">
         <v>512</v>
       </c>
-      <c r="N7" s="50">
+      <c r="N7" s="45">
         <v>65.936000000000007</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="45">
         <v>49.183</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7" s="45">
         <f t="shared" si="1"/>
         <v>56.340487460801434</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="44">
         <v>700</v>
       </c>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50" t="e">
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U7" s="48">
+      <c r="U7" s="44">
         <v>700</v>
       </c>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50" t="e">
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3736,43 +3778,43 @@
       <c r="H8" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I8" s="48">
-        <v>300</v>
-      </c>
-      <c r="J8" s="50">
+      <c r="I8" s="44">
+        <v>300</v>
+      </c>
+      <c r="J8" s="45">
         <v>57.533999999999999</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="45">
         <v>70.549000000000007</v>
       </c>
-      <c r="L8" s="50">
+      <c r="L8" s="45">
         <f t="shared" si="0"/>
         <v>63.380248214048713</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="44">
         <v>512</v>
       </c>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50" t="e">
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="48">
+      <c r="Q8" s="44">
         <v>700</v>
       </c>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50" t="e">
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="48">
+      <c r="U8" s="44">
         <v>700</v>
       </c>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50" t="e">
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3802,42 +3844,42 @@
       <c r="H9" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I9" s="48">
-        <v>300</v>
-      </c>
-      <c r="J9" s="50">
+      <c r="I9" s="44">
+        <v>300</v>
+      </c>
+      <c r="J9" s="45">
         <v>62.192</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="45">
         <v>74.671000000000006</v>
       </c>
-      <c r="L9" s="50">
+      <c r="L9" s="45">
         <v>67.861999999999995</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="44">
         <v>512</v>
       </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50" t="e">
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="44">
         <v>700</v>
       </c>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50" t="e">
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U9" s="48">
+      <c r="U9" s="44">
         <v>700</v>
       </c>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50" t="e">
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3867,43 +3909,43 @@
       <c r="H10" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I10" s="48">
-        <v>300</v>
-      </c>
-      <c r="J10" s="50">
+      <c r="I10" s="44">
+        <v>300</v>
+      </c>
+      <c r="J10" s="45">
         <v>63.47</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="45">
         <v>76.373999999999995</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="45">
         <f t="shared" si="0"/>
         <v>69.326646549011755</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="44">
         <v>512</v>
       </c>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50" t="e">
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="44">
         <v>700</v>
       </c>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50" t="e">
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="48">
+      <c r="U10" s="44">
         <v>700</v>
       </c>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50" t="e">
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -3933,112 +3975,112 @@
       <c r="H11" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I11" s="48">
-        <v>300</v>
-      </c>
-      <c r="J11" s="50">
+      <c r="I11" s="44">
+        <v>300</v>
+      </c>
+      <c r="J11" s="45">
         <v>60.274000000000001</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="45">
         <v>66.198999999999998</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="45">
         <v>63.097999999999999</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="44">
         <v>512</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50" t="e">
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="44">
         <v>700</v>
       </c>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50" t="e">
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" s="48">
+      <c r="U11" s="44">
         <v>700</v>
       </c>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50" t="e">
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="51">
+      <c r="A12" s="46">
         <v>10</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="C12" s="51">
-        <v>300</v>
-      </c>
-      <c r="D12" s="51" t="s">
+      <c r="C12" s="46">
+        <v>300</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="E12" s="51">
-        <v>4</v>
-      </c>
-      <c r="F12" s="51">
-        <v>4</v>
-      </c>
-      <c r="G12" s="51" t="s">
+      <c r="E12" s="46">
+        <v>4</v>
+      </c>
+      <c r="F12" s="46">
+        <v>4</v>
+      </c>
+      <c r="G12" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="I12" s="48">
-        <v>300</v>
-      </c>
-      <c r="J12" s="50">
+      <c r="I12" s="44">
+        <v>300</v>
+      </c>
+      <c r="J12" s="45">
         <v>66.667000000000002</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="45">
         <v>79.606999999999999</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="45">
         <f t="shared" si="0"/>
         <v>72.564637174070583</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="44">
         <v>512</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="45">
         <v>65.936000000000007</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="45">
         <v>58.843000000000004</v>
       </c>
-      <c r="P12" s="50">
+      <c r="P12" s="45">
         <f t="shared" si="1"/>
         <v>62.187900976927203</v>
       </c>
-      <c r="Q12" s="48">
+      <c r="Q12" s="44">
         <v>700</v>
       </c>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50" t="e">
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="48">
+      <c r="U12" s="44">
         <v>700</v>
       </c>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50" t="e">
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -4068,43 +4110,43 @@
       <c r="H13" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I13" s="48">
-        <v>300</v>
-      </c>
-      <c r="J13" s="50">
+      <c r="I13" s="44">
+        <v>300</v>
+      </c>
+      <c r="J13" s="45">
         <v>65.022999999999996</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="45">
         <v>80.451999999999998</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="45">
         <f t="shared" si="0"/>
         <v>71.919304292833814</v>
       </c>
-      <c r="M13" s="48">
+      <c r="M13" s="44">
         <v>512</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50" t="e">
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="44">
         <v>700</v>
       </c>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50" t="e">
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="48">
+      <c r="U13" s="44">
         <v>700</v>
       </c>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50" t="e">
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -4134,43 +4176,43 @@
       <c r="H14" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I14" s="48">
-        <v>300</v>
-      </c>
-      <c r="J14" s="50">
+      <c r="I14" s="44">
+        <v>300</v>
+      </c>
+      <c r="J14" s="45">
         <v>65.844999999999999</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="45">
         <v>79.144000000000005</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="45">
         <f t="shared" si="0"/>
         <v>71.884579933650144</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="44">
         <v>512</v>
       </c>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50" t="e">
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="48">
+      <c r="Q14" s="44">
         <v>700</v>
       </c>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50" t="e">
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U14" s="48">
+      <c r="U14" s="44">
         <v>700</v>
       </c>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50" t="e">
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -4200,44 +4242,44 @@
       <c r="H15" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I15" s="48">
-        <v>300</v>
-      </c>
-      <c r="J15" s="50">
+      <c r="I15" s="44">
+        <v>300</v>
+      </c>
+      <c r="J15" s="45">
         <v>64.932000000000002</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="45">
         <v>76.287999999999997</v>
       </c>
-      <c r="L15" s="50">
+      <c r="L15" s="45">
         <f t="shared" si="0"/>
         <v>70.153411924656567</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="44">
         <v>512</v>
       </c>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50" t="e">
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="44">
         <v>700</v>
       </c>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50" t="e">
-        <f t="shared" ref="T12:T26" si="4">2/(1/R15+1/S15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" s="48">
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45" t="e">
+        <f t="shared" ref="T15:T26" si="4">2/(1/R15+1/S15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" s="44">
         <v>700</v>
       </c>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50" t="e">
-        <f t="shared" ref="X12:X26" si="5">2/(1/V15+1/W15)</f>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45" t="e">
+        <f t="shared" ref="X15:X26" si="5">2/(1/V15+1/W15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4266,175 +4308,175 @@
       <c r="H16" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I16" s="48">
-        <v>300</v>
-      </c>
-      <c r="J16" s="50">
+      <c r="I16" s="44">
+        <v>300</v>
+      </c>
+      <c r="J16" s="45">
         <v>64.748999999999995</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="45">
         <v>78.429000000000002</v>
       </c>
-      <c r="L16" s="50">
+      <c r="L16" s="45">
         <f t="shared" si="0"/>
         <v>70.935469429660984</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="44">
         <v>512</v>
       </c>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50" t="e">
-        <f t="shared" ref="P12:P26" si="6">2/(1/N16+1/O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="48">
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45" t="e">
+        <f t="shared" ref="P16:P26" si="6">2/(1/N16+1/O16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="44">
         <v>700</v>
       </c>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50" t="e">
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U16" s="48">
+      <c r="U16" s="44">
         <v>700</v>
       </c>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50" t="e">
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="51">
+      <c r="A17" s="46">
         <v>15</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="46">
         <v>512</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="E17" s="51">
-        <v>4</v>
-      </c>
-      <c r="F17" s="51">
-        <v>4</v>
-      </c>
-      <c r="G17" s="51" t="s">
+      <c r="E17" s="46">
+        <v>4</v>
+      </c>
+      <c r="F17" s="46">
+        <v>4</v>
+      </c>
+      <c r="G17" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="I17" s="48">
-        <v>300</v>
-      </c>
-      <c r="J17" s="50">
+      <c r="I17" s="44">
+        <v>300</v>
+      </c>
+      <c r="J17" s="45">
         <v>63.014000000000003</v>
       </c>
-      <c r="K17" s="50">
+      <c r="K17" s="45">
         <v>80.046000000000006</v>
       </c>
-      <c r="L17" s="50">
+      <c r="L17" s="45">
         <f t="shared" si="0"/>
         <v>70.516128114078015</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="44">
         <v>512</v>
       </c>
-      <c r="N17" s="50">
+      <c r="N17" s="45">
         <v>73.150999999999996</v>
       </c>
-      <c r="O17" s="50">
+      <c r="O17" s="45">
         <v>81.236999999999995</v>
       </c>
-      <c r="P17" s="50">
+      <c r="P17" s="45">
         <f t="shared" si="6"/>
         <v>76.982249747389687</v>
       </c>
-      <c r="Q17" s="48">
+      <c r="Q17" s="44">
         <v>700</v>
       </c>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50" t="e">
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U17" s="48">
+      <c r="U17" s="44">
         <v>700</v>
       </c>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50" t="e">
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="51">
+      <c r="A18" s="46">
         <v>16</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="46">
         <v>512</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="F18" s="51">
-        <v>4</v>
-      </c>
-      <c r="G18" s="51" t="s">
+      <c r="F18" s="46">
+        <v>4</v>
+      </c>
+      <c r="G18" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="I18" s="48">
-        <v>5</v>
-      </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50" t="e">
+      <c r="I18" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="48">
+      <c r="M18" s="44">
         <v>512</v>
       </c>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50" t="e">
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q18" s="48">
+      <c r="Q18" s="44">
         <v>700</v>
       </c>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50" t="e">
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U18" s="48">
+      <c r="U18" s="44">
         <v>700</v>
       </c>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50" t="e">
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -4464,112 +4506,110 @@
       <c r="H19" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="44">
         <v>3</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50" t="e">
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="48">
+      <c r="M19" s="44">
         <v>512</v>
       </c>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50" t="e">
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="44">
         <v>700</v>
       </c>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50" t="e">
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U19" s="48">
+      <c r="U19" s="44">
         <v>700</v>
       </c>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50" t="e">
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="52">
+      <c r="A20" s="47">
         <v>18</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="47">
         <v>512</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="E20" s="52">
-        <v>4</v>
-      </c>
-      <c r="F20" s="52">
+      <c r="E20" s="47">
+        <v>4</v>
+      </c>
+      <c r="F20" s="47">
         <v>8</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="I20" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="50">
+      <c r="I20" s="44"/>
+      <c r="J20" s="45">
         <v>69.588999999999999</v>
       </c>
-      <c r="K20" s="50">
+      <c r="K20" s="45">
         <v>81.671999999999997</v>
       </c>
-      <c r="L20" s="50">
+      <c r="L20" s="45">
         <v>75.147999999999996</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="44">
         <v>512</v>
       </c>
-      <c r="N20" s="50">
+      <c r="N20" s="45">
         <v>81.096000000000004</v>
       </c>
-      <c r="O20" s="50">
+      <c r="O20" s="45">
         <v>84.171000000000006</v>
       </c>
-      <c r="P20" s="50">
+      <c r="P20" s="45">
         <f t="shared" si="6"/>
         <v>82.604892882426626</v>
       </c>
-      <c r="Q20" s="48">
+      <c r="Q20" s="44">
         <v>700</v>
       </c>
-      <c r="R20" s="50">
+      <c r="R20" s="45">
         <v>82.647999999999996</v>
       </c>
-      <c r="S20" s="50">
+      <c r="S20" s="45">
         <v>80.302000000000007</v>
       </c>
-      <c r="T20" s="50">
+      <c r="T20" s="45">
         <f t="shared" si="4"/>
         <v>81.458112255293031</v>
       </c>
-      <c r="U20" s="48" t="s">
+      <c r="U20" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50" t="e">
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -4579,7 +4619,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>49</v>
+        <v>406</v>
       </c>
       <c r="C21" s="24">
         <v>300</v>
@@ -4599,39 +4639,39 @@
       <c r="H21" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="I21" s="48">
-        <v>4</v>
-      </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50" t="e">
+      <c r="I21" s="44">
+        <v>4</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="48">
+      <c r="M21" s="44">
         <v>512</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50" t="e">
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q21" s="48">
+      <c r="Q21" s="44">
         <v>700</v>
       </c>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50" t="e">
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U21" s="48">
+      <c r="U21" s="44">
         <v>700</v>
       </c>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50" t="e">
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -4661,39 +4701,39 @@
       <c r="H22" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="44">
         <v>2</v>
       </c>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50" t="e">
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="48">
+      <c r="M22" s="44">
         <v>512</v>
       </c>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50" t="e">
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q22" s="48">
+      <c r="Q22" s="44">
         <v>700</v>
       </c>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50" t="e">
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U22" s="48">
+      <c r="U22" s="44">
         <v>700</v>
       </c>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50" t="e">
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -4720,48 +4760,48 @@
       <c r="G23" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="34" t="s">
         <v>388</v>
       </c>
       <c r="I23" s="24"/>
-      <c r="J23" s="50">
+      <c r="J23" s="45">
         <v>67.944999999999993</v>
       </c>
-      <c r="K23" s="50">
+      <c r="K23" s="45">
         <v>79.317999999999998</v>
       </c>
-      <c r="L23" s="50">
+      <c r="L23" s="45">
         <f t="shared" ref="L23:L26" si="7">2/(1/J23+1/K23)</f>
         <v>73.192336296286229</v>
       </c>
-      <c r="M23" s="48">
+      <c r="M23" s="44">
         <v>512</v>
       </c>
-      <c r="N23" s="50">
+      <c r="N23" s="45">
         <v>69.224000000000004</v>
       </c>
-      <c r="O23" s="50">
+      <c r="O23" s="45">
         <v>37.212000000000003</v>
       </c>
-      <c r="P23" s="50">
+      <c r="P23" s="45">
         <f t="shared" si="6"/>
         <v>48.403989026269308</v>
       </c>
-      <c r="Q23" s="48">
+      <c r="Q23" s="44">
         <v>700</v>
       </c>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50" t="e">
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U23" s="48">
+      <c r="U23" s="44">
         <v>700</v>
       </c>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50" t="e">
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -4788,40 +4828,40 @@
       <c r="G24" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="44" t="s">
         <v>389</v>
       </c>
       <c r="I24" s="24"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50" t="e">
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="48">
+      <c r="M24" s="44">
         <v>512</v>
       </c>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50" t="e">
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q24" s="48">
+      <c r="Q24" s="44">
         <v>700</v>
       </c>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50" t="e">
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U24" s="48">
+      <c r="U24" s="44">
         <v>700</v>
       </c>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50" t="e">
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -4830,60 +4870,60 @@
       <c r="A25" s="24">
         <v>23</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="C25" s="51">
-        <v>300</v>
-      </c>
-      <c r="D25" s="51" t="s">
+      <c r="C25" s="46">
+        <v>300</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="46" t="s">
         <v>395</v>
       </c>
-      <c r="F25" s="51">
-        <v>4</v>
-      </c>
-      <c r="G25" s="51" t="s">
+      <c r="F25" s="46">
+        <v>4</v>
+      </c>
+      <c r="G25" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H25" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="46" t="s">
         <v>396</v>
       </c>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50" t="e">
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="48">
+      <c r="M25" s="44">
         <v>512</v>
       </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50" t="e">
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q25" s="48">
+      <c r="Q25" s="44">
         <v>700</v>
       </c>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50" t="e">
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U25" s="48">
+      <c r="U25" s="44">
         <v>700</v>
       </c>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50" t="e">
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -4913,40 +4953,164 @@
       <c r="H26" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50" t="e">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="48">
+      <c r="M26" s="44">
         <v>512</v>
       </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50" t="e">
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" s="48">
+      <c r="Q26" s="44">
         <v>700</v>
       </c>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50" t="e">
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U26" s="48">
+      <c r="U26" s="44">
         <v>700</v>
       </c>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50" t="e">
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45" t="e">
         <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="34">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="6">
+        <v>512</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E27" s="6">
+        <v>4</v>
+      </c>
+      <c r="F27" s="6">
+        <v>8</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45" t="e">
+        <f t="shared" ref="L27" si="8">2/(1/J27+1/K27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="44">
+        <v>512</v>
+      </c>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45" t="e">
+        <f t="shared" ref="P27" si="9">2/(1/N27+1/O27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="44">
+        <v>700</v>
+      </c>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45" t="e">
+        <f t="shared" ref="T27" si="10">2/(1/R27+1/S27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="44">
+        <v>700</v>
+      </c>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45" t="e">
+        <f t="shared" ref="X27" si="11">2/(1/V27+1/W27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="34">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" s="6">
+        <v>512</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="F28" s="6">
+        <v>8</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45" t="e">
+        <f t="shared" ref="L28" si="12">2/(1/J28+1/K28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="44">
+        <v>512</v>
+      </c>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45" t="e">
+        <f t="shared" ref="P28" si="13">2/(1/N28+1/O28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="44">
+        <v>700</v>
+      </c>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45" t="e">
+        <f t="shared" ref="T28" si="14">2/(1/R28+1/S28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" s="44">
+        <v>700</v>
+      </c>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45" t="e">
+        <f t="shared" ref="X28" si="15">2/(1/V28+1/W28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4968,7 +5132,7 @@
   <dimension ref="B3:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4991,26 +5155,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="K3" s="37" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="K3" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="31">
@@ -5113,28 +5277,28 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="47">
+      <c r="B6" s="43">
         <v>5</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="43" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="47">
-        <v>300</v>
-      </c>
-      <c r="E6" s="47" t="s">
+      <c r="D6" s="43">
+        <v>300</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="43" t="s">
         <v>378</v>
       </c>
-      <c r="G6" s="47">
-        <v>4</v>
-      </c>
-      <c r="H6" s="47" t="s">
+      <c r="G6" s="43">
+        <v>4</v>
+      </c>
+      <c r="H6" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="43" t="s">
         <v>371</v>
       </c>
       <c r="K6" s="31">
@@ -5189,26 +5353,26 @@
       </c>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="52" t="s">
         <v>383</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="L11" s="37" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="L11" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="31">
@@ -5413,7 +5577,7 @@
       </c>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="42">
+      <c r="B16" s="38">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -5434,7 +5598,7 @@
       <c r="H16" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="39" t="s">
         <v>371</v>
       </c>
       <c r="K16" s="31"/>
@@ -5448,33 +5612,33 @@
     </row>
     <row r="17" spans="2:18" ht="15" thickBot="1"/>
     <row r="18" spans="2:18">
-      <c r="B18" s="39">
+      <c r="B18" s="35">
         <v>7</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="D18" s="40">
-        <v>300</v>
-      </c>
-      <c r="E18" s="40" t="s">
+      <c r="D18" s="36">
+        <v>300</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="G18" s="40">
-        <v>4</v>
-      </c>
-      <c r="H18" s="40" t="s">
+      <c r="G18" s="36">
+        <v>4</v>
+      </c>
+      <c r="H18" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="37" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="42">
+      <c r="B19" s="38">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -5495,43 +5659,43 @@
       <c r="H19" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="K19" s="37" t="s">
+      <c r="K19" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
     </row>
     <row r="20" spans="2:18" ht="15" thickBot="1">
-      <c r="B20" s="44">
+      <c r="B20" s="40">
         <v>9</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="D20" s="45">
-        <v>300</v>
-      </c>
-      <c r="E20" s="45" t="s">
+      <c r="D20" s="41">
+        <v>300</v>
+      </c>
+      <c r="E20" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="G20" s="45">
-        <v>4</v>
-      </c>
-      <c r="H20" s="45" t="s">
+      <c r="G20" s="41">
+        <v>4</v>
+      </c>
+      <c r="H20" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="42" t="s">
         <v>371</v>
       </c>
       <c r="K20" s="31">
@@ -6719,7 +6883,7 @@
       <c r="Q22" s="21"/>
     </row>
     <row r="23" spans="3:18" ht="14.25" customHeight="1">
-      <c r="M23" s="38" t="s">
+      <c r="M23" s="53" t="s">
         <v>339</v>
       </c>
       <c r="N23" s="20" t="s">
@@ -6739,7 +6903,7 @@
       </c>
     </row>
     <row r="24" spans="3:18">
-      <c r="M24" s="38"/>
+      <c r="M24" s="53"/>
       <c r="N24" s="20" t="s">
         <v>171</v>
       </c>
@@ -6757,7 +6921,7 @@
       </c>
     </row>
     <row r="25" spans="3:18">
-      <c r="M25" s="38"/>
+      <c r="M25" s="53"/>
       <c r="N25" s="23" t="s">
         <v>345</v>
       </c>
@@ -6775,7 +6939,7 @@
       </c>
     </row>
     <row r="26" spans="3:18">
-      <c r="M26" s="38"/>
+      <c r="M26" s="53"/>
       <c r="N26" s="23" t="s">
         <v>347</v>
       </c>

--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -11,7 +11,7 @@
     <sheet name="需要训练的模型" sheetId="2" r:id="rId2"/>
     <sheet name="已经训练好的模型总结" sheetId="6" r:id="rId3"/>
     <sheet name="第二章对比试验" sheetId="7" r:id="rId4"/>
-    <sheet name="数据库统计" sheetId="3" r:id="rId5"/>
+    <sheet name="迭代次数统计" sheetId="3" r:id="rId5"/>
     <sheet name="感受野计算" sheetId="4" r:id="rId6"/>
     <sheet name="200类目录" sheetId="5" r:id="rId7"/>
   </sheets>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="436">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1183,23 +1183,6 @@
     <t xml:space="preserve">zebra </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Class name in 
-PASCAL VOC 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="CMBX8"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(20 classes) </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">aeroplane </t>
   </si>
   <si>
@@ -1235,183 +1218,334 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>周五晚上开始跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my，16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.29-10.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20k, 30k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchor 尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchor长宽比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max iter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICDAR13</t>
+  </si>
+  <si>
+    <t>ICDAR13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10,20], [20,90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40k</t>
+  </si>
+  <si>
+    <t>40k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>30k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,4,8,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,10], [10, 70]</t>
+  </si>
+  <si>
+    <t>[5,10], [10, 70]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10,20], [10,90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10,20], [10,90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default box的尺度对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default box的长宽比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练图像的尺度对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据扩增的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICDAR13-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习率的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nostep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20k, 30k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 10], [10, 70]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10, 20], [10, 90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10, 20], [20, 90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10, 20], [20, 90]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召回率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多尺度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoICDAR13SCUT</t>
+  </si>
+  <si>
+    <t>cocoICDAR13SCUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nostep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300k?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25(140k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18(120k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 class name in PASCAL VOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 class name in the ILSVRC DET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bus </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laptop, lemon, lion, lipstick, lizard, lobster, maillot, maraca, microphone, microwave, milkcan, miniskirt, monkey, motorcycle, mushroom, nail, neckbrace, oboe, orange, otter, pencilbox, pencilsharpener, perfume, person, piano, pineapple, pingpongball, pitcher, pizza, plasticbag, platerack, pomegranate, popsicle, porcupine, powerdrill, pretzel, printer, puck, punchingbag, purse, rabbit, racket, ray, redpanda, refrigerator, remotecontrol, rubbereraser, rugbyball, ruler, saltorpeppershaker, saxophone, scorpion, screwdriver, seal, sheep, ski, skunk, snail, snake, snowmobile, snowplow, soapdispenser, soccerball, sofa, spatula, squirrel, starfish, stethoscope, stove, strainer, strawberry, stretcher, sunglasses, swimmingtrunks, swine, syringe, table, tapeplayer, tennisball, tick, tie, tiger, toaster, trafficlight, train, trombone, trumpet, turtle, tvormonitor, unicycle, vacuum, violin, volleyball, waffleiron, washer, waterbottle, watercraft, whale, winebottle, zebra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accordion, airplane, ant, antelope, apple, armadillo, artichoke, axe, babybed, backpack, bagel, balancebeam, banana, bandaid, banjo, baseball, basketball, bathingcap, beaker, bear, bee, bellpepper, bench, bicycle, binder, bird, bookshelf, bow, bowtie, bowl, brassiere, burrito, bus, butterfly, camel, canopener, car, cart, cattle, cello, centipede, chainsaw, chair, chime, cocktailshaker, coffeemaker, computerkeyboard, computermouse, corkscrew, cream, croquetball, crutch, cucumber, cupormug, diaper, digitalclock, dishwasher, dog, domesticcat, dragonfly, drum, dumbbell, electricfan, elephant, facepowder, fig, filingcabinet, flowerpot, flute, fox, frenchhorn, frog, fryingpan, giantpanda, goldfish, golfball, golfcart, guacamole, guitar, hairdryer, hairspray, hamburger, hammer, hamster, harmonica, harp, hatwithawidebrim, headcabbage, helmet, hippopotamus, horizontalbar, horse, hotdog, iPod, isopod, jellyfish, koalabear, ladle, ladybug, lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300(150k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512(150k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300(180k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512(180k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300(160k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512(160k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoICDAR13SCUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoICDAR13SCUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>150k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周五晚上开始跑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my，16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.29-10.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20k, 30k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像尺度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anchor 尺度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anchor长宽比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max iter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICDAR13</t>
-  </si>
-  <si>
-    <t>ICDAR13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10,20], [20,90]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,6,10</t>
+    <t>nostep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>40k</t>
-  </si>
-  <si>
-    <t>40k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>30k</t>
-  </si>
-  <si>
-    <t>30k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,4,8,10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5,10], [10, 70]</t>
-  </si>
-  <si>
-    <t>[5,10], [10, 70]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4, 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10,20], [10,90]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10,20], [10,90]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default box的尺度对比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default box的长宽比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练图像的尺度对比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据扩增的影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICDAR13-test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习率的影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nostep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20k, 30k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 10], [10, 70]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10, 20], [10, 90]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10, 20], [20, 90]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10, 20], [20, 90]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpu1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1419,70 +1553,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gpu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召回率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准确率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阈值0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试尺度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多尺度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cocoICDAR13SCUT</t>
-  </si>
-  <si>
-    <t>cocoICDAR13SCUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nostep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150k?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nostep?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my2</t>
+    <t>xiaodong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1494,7 +1565,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1533,13 +1604,37 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="CMBX8"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1570,8 +1665,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1737,11 +1838,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1776,9 +2047,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1787,9 +2055,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1804,9 +2069,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1836,12 +2098,70 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1853,14 +2173,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2183,16 +2515,16 @@
       </c>
     </row>
     <row r="4" spans="4:11">
-      <c r="D4" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="63" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2209,10 +2541,10 @@
       </c>
     </row>
     <row r="5" spans="4:11">
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="49"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2227,16 +2559,16 @@
       </c>
     </row>
     <row r="6" spans="4:11">
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="63" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2253,10 +2585,10 @@
       </c>
     </row>
     <row r="7" spans="4:11">
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="49"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2271,16 +2603,16 @@
       </c>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="63" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2297,10 +2629,10 @@
       </c>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="49"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2371,7 +2703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C28:G29"/>
     </sheetView>
   </sheetViews>
@@ -2421,7 +2753,7 @@
         <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L2" t="s">
         <v>66</v>
@@ -2481,10 +2813,10 @@
       <c r="E4">
         <v>300</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>44</v>
       </c>
       <c r="H4">
@@ -2519,10 +2851,10 @@
       <c r="E5">
         <v>300</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="25" t="s">
         <v>45</v>
       </c>
       <c r="H5">
@@ -2557,10 +2889,10 @@
       <c r="E6">
         <v>300</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="25" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="8">
@@ -2595,10 +2927,10 @@
       <c r="E7">
         <v>300</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="26" t="s">
         <v>84</v>
       </c>
       <c r="H7" s="8">
@@ -2633,10 +2965,10 @@
       <c r="E8">
         <v>300</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>109</v>
       </c>
       <c r="H8" s="8">
@@ -2662,10 +2994,10 @@
       <c r="E9">
         <v>300</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="24">
         <v>4</v>
       </c>
       <c r="H9" s="8">
@@ -2703,7 +3035,7 @@
       <c r="F10" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="27" t="s">
         <v>85</v>
       </c>
       <c r="H10">
@@ -2776,7 +3108,7 @@
       <c r="E12">
         <v>300</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="27" t="s">
         <v>98</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -2814,10 +3146,10 @@
       <c r="E13">
         <v>300</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="24">
         <v>5</v>
       </c>
       <c r="N13" t="s">
@@ -2840,10 +3172,10 @@
       <c r="E14">
         <v>300</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="25">
         <v>6</v>
       </c>
       <c r="N14" t="s">
@@ -2866,10 +3198,10 @@
       <c r="E15">
         <v>300</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="25">
         <v>4</v>
       </c>
       <c r="P15" s="15">
@@ -2889,10 +3221,10 @@
       <c r="E16">
         <v>300</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="25">
         <v>3</v>
       </c>
       <c r="N16" t="s">
@@ -2915,10 +3247,10 @@
       <c r="E17">
         <v>300</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="26">
         <v>7</v>
       </c>
       <c r="N17" t="s">
@@ -2948,8 +3280,8 @@
       <c r="G19">
         <v>4</v>
       </c>
-      <c r="K19" s="25" t="s">
-        <v>357</v>
+      <c r="K19" s="23" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2971,8 +3303,8 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="K20" s="25" t="s">
-        <v>358</v>
+      <c r="K20" s="23" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2991,10 +3323,10 @@
       <c r="E22" s="7">
         <v>512</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="23">
         <v>4</v>
       </c>
       <c r="I22">
@@ -3012,7 +3344,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -3020,10 +3352,10 @@
       <c r="E23" s="7">
         <v>512</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="28" t="s">
         <v>121</v>
       </c>
       <c r="N23" t="s">
@@ -3044,7 +3376,7 @@
       <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <v>300</v>
       </c>
       <c r="F25" s="17" t="s">
@@ -3077,9 +3409,9 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>386</v>
-      </c>
-      <c r="E26" s="25">
+        <v>383</v>
+      </c>
+      <c r="E26" s="23">
         <v>512</v>
       </c>
       <c r="F26" s="17" t="s">
@@ -3104,7 +3436,7 @@
         <v>99</v>
       </c>
       <c r="O26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -3147,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -3188,7 +3520,7 @@
         <v>125</v>
       </c>
       <c r="O29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3298,10 +3630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3313,1695 +3645,1742 @@
     <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="24" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>359</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="F2" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="H2" s="45" t="s">
         <v>361</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="T2" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="U2" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="W2" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="X2" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="45">
+        <v>300</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" s="45">
+        <v>4</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45">
+        <v>300</v>
+      </c>
+      <c r="K3" s="60">
+        <v>57.991</v>
+      </c>
+      <c r="L3" s="60">
+        <v>68.872</v>
+      </c>
+      <c r="M3" s="60">
+        <f>2/(1/K3+1/L3)</f>
+        <v>62.964870009380199</v>
+      </c>
+      <c r="N3" s="45">
+        <v>512</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60" t="e">
+        <f>2/(1/O3+1/P3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R3" s="45">
+        <v>700</v>
+      </c>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60" t="e">
+        <f>2/(1/S3+1/T3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V3" s="45">
+        <v>700</v>
+      </c>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60" t="e">
+        <f>2/(1/W3+1/X3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="45">
+        <v>300</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="F4" s="45">
+        <v>4</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45">
+        <v>300</v>
+      </c>
+      <c r="K4" s="60">
+        <v>59.725999999999999</v>
+      </c>
+      <c r="L4" s="60">
+        <v>70.55</v>
+      </c>
+      <c r="M4" s="60">
+        <f t="shared" ref="M4:M22" si="0">2/(1/K4+1/L4)</f>
+        <v>64.688343209800735</v>
+      </c>
+      <c r="N4" s="45">
+        <v>512</v>
+      </c>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60" t="e">
+        <f t="shared" ref="Q4:Q15" si="1">2/(1/O4+1/P4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R4" s="45">
+        <v>700</v>
+      </c>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60" t="e">
+        <f t="shared" ref="U4:U14" si="2">2/(1/S4+1/T4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V4" s="45">
+        <v>700</v>
+      </c>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60" t="e">
+        <f t="shared" ref="Y4:Y14" si="3">2/(1/W4+1/X4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="T2" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="U2" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="24">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="C5" s="45">
+        <v>300</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="F5" s="45">
+        <v>4</v>
+      </c>
+      <c r="G5" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="C3" s="24">
-        <v>300</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="H5" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="F3" s="24">
-        <v>4</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="I3" s="44">
-        <v>300</v>
-      </c>
-      <c r="J3" s="45">
-        <v>57.991</v>
-      </c>
-      <c r="K3" s="45">
-        <v>68.872</v>
-      </c>
-      <c r="L3" s="45">
-        <f>2/(1/J3+1/K3)</f>
-        <v>62.964870009380199</v>
-      </c>
-      <c r="M3" s="44">
-        <v>512</v>
-      </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45" t="e">
-        <f>2/(1/N3+1/O3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q3" s="44">
-        <v>700</v>
-      </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45" t="e">
-        <f>2/(1/R3+1/S3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U3" s="44">
-        <v>700</v>
-      </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45" t="e">
-        <f>2/(1/V3+1/W3)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="24">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="C4" s="24">
-        <v>300</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="F4" s="24">
-        <v>4</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="I4" s="44">
-        <v>300</v>
-      </c>
-      <c r="J4" s="45">
-        <v>59.725999999999999</v>
-      </c>
-      <c r="K4" s="45">
-        <v>70.55</v>
-      </c>
-      <c r="L4" s="45">
-        <f t="shared" ref="L4:L22" si="0">2/(1/J4+1/K4)</f>
-        <v>64.688343209800735</v>
-      </c>
-      <c r="M4" s="44">
-        <v>512</v>
-      </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45" t="e">
-        <f t="shared" ref="P4:P15" si="1">2/(1/N4+1/O4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q4" s="44">
-        <v>700</v>
-      </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45" t="e">
-        <f t="shared" ref="T4:T14" si="2">2/(1/R4+1/S4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U4" s="44">
-        <v>700</v>
-      </c>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45" t="e">
-        <f t="shared" ref="X4:X14" si="3">2/(1/V4+1/W4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="24">
-        <v>3</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C5" s="24">
-        <v>300</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="F5" s="24">
-        <v>4</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="I5" s="44">
-        <v>300</v>
-      </c>
+      <c r="I5" s="45"/>
       <c r="J5" s="45">
+        <v>300</v>
+      </c>
+      <c r="K5" s="60">
         <v>58.539000000000001</v>
       </c>
-      <c r="K5" s="45">
+      <c r="L5" s="60">
         <v>68.337000000000003</v>
       </c>
-      <c r="L5" s="45">
+      <c r="M5" s="60">
         <f t="shared" si="0"/>
         <v>63.059674690248748</v>
       </c>
-      <c r="M5" s="44">
+      <c r="N5" s="45">
         <v>512</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45" t="e">
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="R5" s="45">
         <v>700</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45" t="e">
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U5" s="44">
+      <c r="V5" s="45">
         <v>700</v>
       </c>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45" t="e">
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="24">
-        <v>4</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6" s="24">
-        <v>300</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="E6" s="24" t="s">
+    <row r="6" spans="1:25">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="45">
+        <v>300</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="45">
+        <v>4</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45">
+        <v>300</v>
+      </c>
+      <c r="K6" s="60">
+        <v>56.895000000000003</v>
+      </c>
+      <c r="L6" s="60">
+        <v>69.686999999999998</v>
+      </c>
+      <c r="M6" s="60">
+        <f t="shared" si="0"/>
+        <v>62.644639285206431</v>
+      </c>
+      <c r="N6" s="45">
+        <v>512</v>
+      </c>
+      <c r="O6" s="60">
+        <v>66.027000000000001</v>
+      </c>
+      <c r="P6" s="60">
+        <v>51.277000000000001</v>
+      </c>
+      <c r="Q6" s="60">
+        <f t="shared" si="1"/>
+        <v>57.724655237673055</v>
+      </c>
+      <c r="R6" s="45">
+        <v>700</v>
+      </c>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V6" s="45">
+        <v>700</v>
+      </c>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="41">
+        <v>300</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="F6" s="24">
-        <v>4</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="I6" s="44">
-        <v>300</v>
-      </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45" t="e">
+      <c r="F7" s="41">
+        <v>4</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="45">
+        <v>300</v>
+      </c>
+      <c r="K7" s="60">
+        <v>64.658000000000001</v>
+      </c>
+      <c r="L7" s="60">
+        <v>79.283000000000001</v>
+      </c>
+      <c r="M7" s="60">
+        <f t="shared" si="0"/>
+        <v>71.227519803252719</v>
+      </c>
+      <c r="N7" s="45">
+        <v>512</v>
+      </c>
+      <c r="O7" s="60">
+        <v>65.936000000000007</v>
+      </c>
+      <c r="P7" s="60">
+        <v>49.183</v>
+      </c>
+      <c r="Q7" s="60">
+        <f t="shared" si="1"/>
+        <v>56.340487460801434</v>
+      </c>
+      <c r="R7" s="45">
+        <v>700</v>
+      </c>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V7" s="45">
+        <v>700</v>
+      </c>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="45">
+        <v>6</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="45">
+        <v>300</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="45">
+        <v>4</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45">
+        <v>300</v>
+      </c>
+      <c r="K8" s="60">
+        <v>57.533999999999999</v>
+      </c>
+      <c r="L8" s="60">
+        <v>70.549000000000007</v>
+      </c>
+      <c r="M8" s="60">
+        <f t="shared" si="0"/>
+        <v>63.380248214048713</v>
+      </c>
+      <c r="N8" s="45">
+        <v>512</v>
+      </c>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R8" s="45">
+        <v>700</v>
+      </c>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8" s="45">
+        <v>700</v>
+      </c>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="45">
+        <v>300</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="F9" s="45">
+        <v>4</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45">
+        <v>300</v>
+      </c>
+      <c r="K9" s="60">
+        <v>62.192</v>
+      </c>
+      <c r="L9" s="60">
+        <v>74.671000000000006</v>
+      </c>
+      <c r="M9" s="60">
+        <v>67.861999999999995</v>
+      </c>
+      <c r="N9" s="45">
+        <v>512</v>
+      </c>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" s="45">
+        <v>700</v>
+      </c>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" s="45">
+        <v>700</v>
+      </c>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="45">
+        <v>8</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="45">
+        <v>300</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="45">
+        <v>4</v>
+      </c>
+      <c r="F10" s="45">
+        <v>4</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45">
+        <v>300</v>
+      </c>
+      <c r="K10" s="60">
+        <v>63.47</v>
+      </c>
+      <c r="L10" s="60">
+        <v>76.373999999999995</v>
+      </c>
+      <c r="M10" s="60">
+        <f t="shared" si="0"/>
+        <v>69.326646549011755</v>
+      </c>
+      <c r="N10" s="45">
+        <v>512</v>
+      </c>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" s="45">
+        <v>700</v>
+      </c>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" s="45">
+        <v>700</v>
+      </c>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="45">
+        <v>9</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="45">
+        <v>300</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="F11" s="45">
+        <v>4</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45">
+        <v>300</v>
+      </c>
+      <c r="K11" s="60">
+        <v>60.274000000000001</v>
+      </c>
+      <c r="L11" s="60">
+        <v>66.198999999999998</v>
+      </c>
+      <c r="M11" s="60">
+        <v>63.097999999999999</v>
+      </c>
+      <c r="N11" s="45">
+        <v>512</v>
+      </c>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="45">
+        <v>700</v>
+      </c>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" s="45">
+        <v>700</v>
+      </c>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="C12" s="41">
+        <v>300</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E12" s="41">
+        <v>4</v>
+      </c>
+      <c r="F12" s="41">
+        <v>4</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="45">
+        <v>300</v>
+      </c>
+      <c r="K12" s="60">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="L12" s="60">
+        <v>79.606999999999999</v>
+      </c>
+      <c r="M12" s="60">
+        <f t="shared" si="0"/>
+        <v>72.564637174070583</v>
+      </c>
+      <c r="N12" s="45">
+        <v>512</v>
+      </c>
+      <c r="O12" s="60">
+        <v>65.936000000000007</v>
+      </c>
+      <c r="P12" s="60">
+        <v>58.843000000000004</v>
+      </c>
+      <c r="Q12" s="60">
+        <f t="shared" si="1"/>
+        <v>62.187900976927203</v>
+      </c>
+      <c r="R12" s="45">
+        <v>700</v>
+      </c>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="45">
+        <v>700</v>
+      </c>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="45">
+        <v>11</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="45">
+        <v>300</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="45">
+        <v>5</v>
+      </c>
+      <c r="F13" s="45">
+        <v>4</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45">
+        <v>300</v>
+      </c>
+      <c r="K13" s="60">
+        <v>65.022999999999996</v>
+      </c>
+      <c r="L13" s="60">
+        <v>80.451999999999998</v>
+      </c>
+      <c r="M13" s="60">
+        <f t="shared" si="0"/>
+        <v>71.919304292833814</v>
+      </c>
+      <c r="N13" s="45">
+        <v>512</v>
+      </c>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" s="45">
+        <v>700</v>
+      </c>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="45">
+        <v>700</v>
+      </c>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="45">
+        <v>12</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="45">
+        <v>300</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="E14" s="45">
+        <v>3</v>
+      </c>
+      <c r="F14" s="45">
+        <v>4</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45">
+        <v>300</v>
+      </c>
+      <c r="K14" s="60">
+        <v>65.844999999999999</v>
+      </c>
+      <c r="L14" s="60">
+        <v>79.144000000000005</v>
+      </c>
+      <c r="M14" s="60">
+        <f t="shared" si="0"/>
+        <v>71.884579933650144</v>
+      </c>
+      <c r="N14" s="45">
+        <v>512</v>
+      </c>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="45">
+        <v>700</v>
+      </c>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="45">
+        <v>700</v>
+      </c>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="45">
+        <v>13</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="45">
+        <v>300</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="45">
+        <v>6</v>
+      </c>
+      <c r="F15" s="45">
+        <v>4</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45">
+        <v>300</v>
+      </c>
+      <c r="K15" s="60">
+        <v>64.932000000000002</v>
+      </c>
+      <c r="L15" s="60">
+        <v>76.287999999999997</v>
+      </c>
+      <c r="M15" s="60">
+        <f t="shared" si="0"/>
+        <v>70.153411924656567</v>
+      </c>
+      <c r="N15" s="45">
+        <v>512</v>
+      </c>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="45">
+        <v>700</v>
+      </c>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60" t="e">
+        <f t="shared" ref="U15:U26" si="4">2/(1/S15+1/T15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" s="45">
+        <v>700</v>
+      </c>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60" t="e">
+        <f t="shared" ref="Y15:Y26" si="5">2/(1/W15+1/X15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="45">
+        <v>14</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="45">
+        <v>300</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="E16" s="45">
+        <v>7</v>
+      </c>
+      <c r="F16" s="45">
+        <v>4</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45">
+        <v>300</v>
+      </c>
+      <c r="K16" s="60">
+        <v>64.748999999999995</v>
+      </c>
+      <c r="L16" s="60">
+        <v>78.429000000000002</v>
+      </c>
+      <c r="M16" s="60">
+        <f t="shared" si="0"/>
+        <v>70.935469429660984</v>
+      </c>
+      <c r="N16" s="45">
+        <v>512</v>
+      </c>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60" t="e">
+        <f t="shared" ref="Q16:Q26" si="6">2/(1/O16+1/P16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="45">
+        <v>700</v>
+      </c>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="45">
+        <v>700</v>
+      </c>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" s="41">
+        <v>512</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="41">
+        <v>4</v>
+      </c>
+      <c r="F17" s="41">
+        <v>4</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="45">
+        <v>300</v>
+      </c>
+      <c r="K17" s="60">
+        <v>63.014000000000003</v>
+      </c>
+      <c r="L17" s="60">
+        <v>80.046000000000006</v>
+      </c>
+      <c r="M17" s="60">
+        <f t="shared" si="0"/>
+        <v>70.516128114078015</v>
+      </c>
+      <c r="N17" s="45">
+        <v>512</v>
+      </c>
+      <c r="O17" s="60">
+        <v>73.150999999999996</v>
+      </c>
+      <c r="P17" s="60">
+        <v>81.236999999999995</v>
+      </c>
+      <c r="Q17" s="60">
+        <f t="shared" si="6"/>
+        <v>76.982249747389687</v>
+      </c>
+      <c r="R17" s="45">
+        <v>700</v>
+      </c>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" s="45">
+        <v>700</v>
+      </c>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="41">
+        <v>16</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="41">
+        <v>512</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="F18" s="41">
+        <v>4</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="44">
+      <c r="N18" s="45">
         <v>512</v>
       </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45" t="e">
-        <f t="shared" si="1"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="R18" s="45">
         <v>700</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U6" s="44">
-        <v>700</v>
-      </c>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="46">
-        <v>5</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="C7" s="46">
-        <v>300</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>378</v>
-      </c>
-      <c r="F7" s="46">
-        <v>4</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="I7" s="44">
-        <v>300</v>
-      </c>
-      <c r="J7" s="45">
-        <v>64.658000000000001</v>
-      </c>
-      <c r="K7" s="45">
-        <v>79.283000000000001</v>
-      </c>
-      <c r="L7" s="45">
-        <f t="shared" si="0"/>
-        <v>71.227519803252719</v>
-      </c>
-      <c r="M7" s="44">
-        <v>512</v>
-      </c>
-      <c r="N7" s="45">
-        <v>65.936000000000007</v>
-      </c>
-      <c r="O7" s="45">
-        <v>49.183</v>
-      </c>
-      <c r="P7" s="45">
-        <f t="shared" si="1"/>
-        <v>56.340487460801434</v>
-      </c>
-      <c r="Q7" s="44">
-        <v>700</v>
-      </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7" s="44">
-        <v>700</v>
-      </c>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="24">
-        <v>6</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C8" s="24">
-        <v>300</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="24">
-        <v>4</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="I8" s="44">
-        <v>300</v>
-      </c>
-      <c r="J8" s="45">
-        <v>57.533999999999999</v>
-      </c>
-      <c r="K8" s="45">
-        <v>70.549000000000007</v>
-      </c>
-      <c r="L8" s="45">
-        <f t="shared" si="0"/>
-        <v>63.380248214048713</v>
-      </c>
-      <c r="M8" s="44">
-        <v>512</v>
-      </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="44">
-        <v>700</v>
-      </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8" s="44">
-        <v>700</v>
-      </c>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="24">
-        <v>7</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C9" s="24">
-        <v>300</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="F9" s="24">
-        <v>4</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="I9" s="44">
-        <v>300</v>
-      </c>
-      <c r="J9" s="45">
-        <v>62.192</v>
-      </c>
-      <c r="K9" s="45">
-        <v>74.671000000000006</v>
-      </c>
-      <c r="L9" s="45">
-        <v>67.861999999999995</v>
-      </c>
-      <c r="M9" s="44">
-        <v>512</v>
-      </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="44">
-        <v>700</v>
-      </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U9" s="44">
-        <v>700</v>
-      </c>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="24">
-        <v>8</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="24">
-        <v>300</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="E10" s="24">
-        <v>4</v>
-      </c>
-      <c r="F10" s="24">
-        <v>4</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="I10" s="44">
-        <v>300</v>
-      </c>
-      <c r="J10" s="45">
-        <v>63.47</v>
-      </c>
-      <c r="K10" s="45">
-        <v>76.373999999999995</v>
-      </c>
-      <c r="L10" s="45">
-        <f t="shared" si="0"/>
-        <v>69.326646549011755</v>
-      </c>
-      <c r="M10" s="44">
-        <v>512</v>
-      </c>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="44">
-        <v>700</v>
-      </c>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" s="44">
-        <v>700</v>
-      </c>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="24">
-        <v>9</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" s="24">
-        <v>300</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="F11" s="24">
-        <v>4</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="I11" s="44">
-        <v>300</v>
-      </c>
-      <c r="J11" s="45">
-        <v>60.274000000000001</v>
-      </c>
-      <c r="K11" s="45">
-        <v>66.198999999999998</v>
-      </c>
-      <c r="L11" s="45">
-        <v>63.097999999999999</v>
-      </c>
-      <c r="M11" s="44">
-        <v>512</v>
-      </c>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="44">
-        <v>700</v>
-      </c>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" s="44">
-        <v>700</v>
-      </c>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="46">
-        <v>10</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="C12" s="46">
-        <v>300</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="E12" s="46">
-        <v>4</v>
-      </c>
-      <c r="F12" s="46">
-        <v>4</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="I12" s="44">
-        <v>300</v>
-      </c>
-      <c r="J12" s="45">
-        <v>66.667000000000002</v>
-      </c>
-      <c r="K12" s="45">
-        <v>79.606999999999999</v>
-      </c>
-      <c r="L12" s="45">
-        <f t="shared" si="0"/>
-        <v>72.564637174070583</v>
-      </c>
-      <c r="M12" s="44">
-        <v>512</v>
-      </c>
-      <c r="N12" s="45">
-        <v>65.936000000000007</v>
-      </c>
-      <c r="O12" s="45">
-        <v>58.843000000000004</v>
-      </c>
-      <c r="P12" s="45">
-        <f t="shared" si="1"/>
-        <v>62.187900976927203</v>
-      </c>
-      <c r="Q12" s="44">
-        <v>700</v>
-      </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" s="44">
-        <v>700</v>
-      </c>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="24">
-        <v>11</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C13" s="24">
-        <v>300</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E13" s="24">
-        <v>5</v>
-      </c>
-      <c r="F13" s="24">
-        <v>4</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="I13" s="44">
-        <v>300</v>
-      </c>
-      <c r="J13" s="45">
-        <v>65.022999999999996</v>
-      </c>
-      <c r="K13" s="45">
-        <v>80.451999999999998</v>
-      </c>
-      <c r="L13" s="45">
-        <f t="shared" si="0"/>
-        <v>71.919304292833814</v>
-      </c>
-      <c r="M13" s="44">
-        <v>512</v>
-      </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="44">
-        <v>700</v>
-      </c>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" s="44">
-        <v>700</v>
-      </c>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="24">
-        <v>12</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C14" s="24">
-        <v>300</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E14" s="24">
-        <v>3</v>
-      </c>
-      <c r="F14" s="24">
-        <v>4</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="I14" s="44">
-        <v>300</v>
-      </c>
-      <c r="J14" s="45">
-        <v>65.844999999999999</v>
-      </c>
-      <c r="K14" s="45">
-        <v>79.144000000000005</v>
-      </c>
-      <c r="L14" s="45">
-        <f t="shared" si="0"/>
-        <v>71.884579933650144</v>
-      </c>
-      <c r="M14" s="44">
-        <v>512</v>
-      </c>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" s="44">
-        <v>700</v>
-      </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" s="44">
-        <v>700</v>
-      </c>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="24">
-        <v>13</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C15" s="24">
-        <v>300</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E15" s="24">
-        <v>6</v>
-      </c>
-      <c r="F15" s="24">
-        <v>4</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="I15" s="44">
-        <v>300</v>
-      </c>
-      <c r="J15" s="45">
-        <v>64.932000000000002</v>
-      </c>
-      <c r="K15" s="45">
-        <v>76.287999999999997</v>
-      </c>
-      <c r="L15" s="45">
-        <f t="shared" si="0"/>
-        <v>70.153411924656567</v>
-      </c>
-      <c r="M15" s="44">
-        <v>512</v>
-      </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" s="44">
-        <v>700</v>
-      </c>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45" t="e">
-        <f t="shared" ref="T15:T26" si="4">2/(1/R15+1/S15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" s="44">
-        <v>700</v>
-      </c>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45" t="e">
-        <f t="shared" ref="X15:X26" si="5">2/(1/V15+1/W15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="24">
-        <v>14</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C16" s="24">
-        <v>300</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E16" s="24">
-        <v>7</v>
-      </c>
-      <c r="F16" s="24">
-        <v>4</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="I16" s="44">
-        <v>300</v>
-      </c>
-      <c r="J16" s="45">
-        <v>64.748999999999995</v>
-      </c>
-      <c r="K16" s="45">
-        <v>78.429000000000002</v>
-      </c>
-      <c r="L16" s="45">
-        <f t="shared" si="0"/>
-        <v>70.935469429660984</v>
-      </c>
-      <c r="M16" s="44">
-        <v>512</v>
-      </c>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45" t="e">
-        <f t="shared" ref="P16:P26" si="6">2/(1/N16+1/O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="44">
-        <v>700</v>
-      </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45" t="e">
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U16" s="44">
+      <c r="V18" s="45">
         <v>700</v>
       </c>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45" t="e">
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="46">
-        <v>15</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="C17" s="46">
+    <row r="19" spans="1:25">
+      <c r="A19" s="45">
+        <v>17</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="45">
+        <v>300</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" s="45">
+        <v>4</v>
+      </c>
+      <c r="F19" s="45">
+        <v>8</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="45">
         <v>512</v>
       </c>
-      <c r="D17" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="E17" s="46">
-        <v>4</v>
-      </c>
-      <c r="F17" s="46">
-        <v>4</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="I17" s="44">
-        <v>300</v>
-      </c>
-      <c r="J17" s="45">
-        <v>63.014000000000003</v>
-      </c>
-      <c r="K17" s="45">
-        <v>80.046000000000006</v>
-      </c>
-      <c r="L17" s="45">
-        <f t="shared" si="0"/>
-        <v>70.516128114078015</v>
-      </c>
-      <c r="M17" s="44">
-        <v>512</v>
-      </c>
-      <c r="N17" s="45">
-        <v>73.150999999999996</v>
-      </c>
-      <c r="O17" s="45">
-        <v>81.236999999999995</v>
-      </c>
-      <c r="P17" s="45">
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60" t="e">
         <f t="shared" si="6"/>
-        <v>76.982249747389687</v>
-      </c>
-      <c r="Q17" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" s="45">
         <v>700</v>
       </c>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45" t="e">
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U17" s="44">
+      <c r="V19" s="45">
         <v>700</v>
       </c>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45" t="e">
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="46">
-        <v>16</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="C18" s="46">
+    <row r="20" spans="1:25">
+      <c r="A20" s="42">
+        <v>18</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="C20" s="42">
         <v>512</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>378</v>
-      </c>
-      <c r="F18" s="46">
-        <v>4</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="I18" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45" t="e">
+      <c r="D20" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="E20" s="42">
+        <v>4</v>
+      </c>
+      <c r="F20" s="42">
+        <v>8</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="I20" s="42"/>
+      <c r="J20" s="45">
+        <v>300</v>
+      </c>
+      <c r="K20" s="60">
+        <v>69.588999999999999</v>
+      </c>
+      <c r="L20" s="60">
+        <v>81.671999999999997</v>
+      </c>
+      <c r="M20" s="60">
+        <v>75.147999999999996</v>
+      </c>
+      <c r="N20" s="45">
+        <v>512</v>
+      </c>
+      <c r="O20" s="60">
+        <v>81.096000000000004</v>
+      </c>
+      <c r="P20" s="60">
+        <v>84.171000000000006</v>
+      </c>
+      <c r="Q20" s="61">
+        <f t="shared" si="6"/>
+        <v>82.604892882426626</v>
+      </c>
+      <c r="R20" s="45">
+        <v>700</v>
+      </c>
+      <c r="S20" s="60">
+        <v>82.647999999999996</v>
+      </c>
+      <c r="T20" s="60">
+        <v>80.302000000000007</v>
+      </c>
+      <c r="U20" s="60">
+        <f t="shared" si="4"/>
+        <v>81.458112255293031</v>
+      </c>
+      <c r="V20" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="45">
+        <v>19</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21" s="45">
+        <v>300</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="F21" s="45">
+        <v>8</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="44">
+      <c r="N21" s="45">
         <v>512</v>
       </c>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45" t="e">
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="R21" s="45">
         <v>700</v>
       </c>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45" t="e">
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U18" s="44">
+      <c r="V21" s="45">
         <v>700</v>
       </c>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45" t="e">
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="24">
-        <v>17</v>
-      </c>
-      <c r="B19" s="24" t="s">
+    <row r="22" spans="1:25">
+      <c r="A22" s="45">
+        <v>20</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="24">
-        <v>300</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E19" s="24">
-        <v>4</v>
-      </c>
-      <c r="F19" s="24">
+      <c r="C22" s="45">
+        <v>512</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="F22" s="45">
         <v>8</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G22" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="I19" s="44">
-        <v>3</v>
-      </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45" t="e">
+      <c r="H22" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45" t="s">
+        <v>425</v>
+      </c>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="44">
+      <c r="N22" s="45">
         <v>512</v>
       </c>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45" t="e">
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="R22" s="45">
         <v>700</v>
       </c>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45" t="e">
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U19" s="44">
+      <c r="V22" s="45">
         <v>700</v>
       </c>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45" t="e">
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="47">
-        <v>18</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="47">
+    <row r="23" spans="1:25">
+      <c r="A23" s="45">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="45">
+        <v>300</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="E23" s="45">
+        <v>4</v>
+      </c>
+      <c r="F23" s="45">
+        <v>4</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45">
+        <v>300</v>
+      </c>
+      <c r="K23" s="60">
+        <v>67.944999999999993</v>
+      </c>
+      <c r="L23" s="60">
+        <v>79.317999999999998</v>
+      </c>
+      <c r="M23" s="60">
+        <f t="shared" ref="M23:M26" si="7">2/(1/K23+1/L23)</f>
+        <v>73.192336296286229</v>
+      </c>
+      <c r="N23" s="45">
         <v>512</v>
       </c>
-      <c r="D20" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="E20" s="47">
-        <v>4</v>
-      </c>
-      <c r="F20" s="47">
-        <v>8</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>394</v>
-      </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45">
-        <v>69.588999999999999</v>
-      </c>
-      <c r="K20" s="45">
-        <v>81.671999999999997</v>
-      </c>
-      <c r="L20" s="45">
-        <v>75.147999999999996</v>
-      </c>
-      <c r="M20" s="44">
-        <v>512</v>
-      </c>
-      <c r="N20" s="45">
-        <v>81.096000000000004</v>
-      </c>
-      <c r="O20" s="45">
-        <v>84.171000000000006</v>
-      </c>
-      <c r="P20" s="45">
+      <c r="O23" s="60">
+        <v>69.224000000000004</v>
+      </c>
+      <c r="P23" s="60">
+        <v>37.212000000000003</v>
+      </c>
+      <c r="Q23" s="60">
         <f t="shared" si="6"/>
-        <v>82.604892882426626</v>
-      </c>
-      <c r="Q20" s="44">
+        <v>48.403989026269308</v>
+      </c>
+      <c r="R23" s="45">
         <v>700</v>
       </c>
-      <c r="R20" s="45">
-        <v>82.647999999999996</v>
-      </c>
-      <c r="S20" s="45">
-        <v>80.302000000000007</v>
-      </c>
-      <c r="T20" s="45">
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60" t="e">
         <f t="shared" si="4"/>
-        <v>81.458112255293031</v>
-      </c>
-      <c r="U20" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" s="45">
+        <v>700</v>
+      </c>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="24">
-        <v>19</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="C21" s="24">
-        <v>300</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="F21" s="24">
-        <v>8</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="I21" s="44">
-        <v>4</v>
-      </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="44">
+    <row r="24" spans="1:25">
+      <c r="A24" s="45">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C24" s="45">
+        <v>300</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="E24" s="45">
+        <v>4</v>
+      </c>
+      <c r="F24" s="45">
+        <v>4</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45">
+        <v>300</v>
+      </c>
+      <c r="K24" s="60">
+        <v>64.84</v>
+      </c>
+      <c r="L24" s="60">
+        <v>77.09</v>
+      </c>
+      <c r="M24" s="60">
+        <f t="shared" si="7"/>
+        <v>70.436350313534845</v>
+      </c>
+      <c r="N24" s="45">
         <v>512</v>
       </c>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45" t="e">
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q21" s="44">
+      <c r="R24" s="45">
         <v>700</v>
       </c>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45" t="e">
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U21" s="44">
+      <c r="V24" s="45">
         <v>700</v>
       </c>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45" t="e">
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="24">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="24">
+    <row r="25" spans="1:25" s="8" customFormat="1">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" s="6">
+        <v>300</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="45">
+        <v>300</v>
+      </c>
+      <c r="K25" s="62">
+        <v>63.652999999999999</v>
+      </c>
+      <c r="L25" s="62">
+        <v>80.206999999999994</v>
+      </c>
+      <c r="M25" s="62">
+        <f t="shared" si="7"/>
+        <v>70.977563895453912</v>
+      </c>
+      <c r="N25" s="6">
         <v>512</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="F22" s="24">
-        <v>8</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="I22" s="44">
-        <v>2</v>
-      </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="44">
-        <v>512</v>
-      </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45" t="e">
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="R25" s="6">
         <v>700</v>
       </c>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45" t="e">
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U22" s="44">
+      <c r="V25" s="6">
         <v>700</v>
       </c>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45" t="e">
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="24">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C23" s="24">
-        <v>300</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="E23" s="24">
-        <v>4</v>
-      </c>
-      <c r="F23" s="24">
-        <v>4</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H23" s="34" t="s">
+    <row r="26" spans="1:25">
+      <c r="A26" s="45">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C26" s="6">
+        <v>300</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="45">
-        <v>67.944999999999993</v>
-      </c>
-      <c r="K23" s="45">
-        <v>79.317999999999998</v>
-      </c>
-      <c r="L23" s="45">
-        <f t="shared" ref="L23:L26" si="7">2/(1/J23+1/K23)</f>
-        <v>73.192336296286229</v>
-      </c>
-      <c r="M23" s="44">
+      <c r="E26" s="6">
+        <v>4</v>
+      </c>
+      <c r="F26" s="6">
+        <v>4</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="45">
         <v>512</v>
       </c>
-      <c r="N23" s="45">
-        <v>69.224000000000004</v>
-      </c>
-      <c r="O23" s="45">
-        <v>37.212000000000003</v>
-      </c>
-      <c r="P23" s="45">
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60" t="e">
         <f t="shared" si="6"/>
-        <v>48.403989026269308</v>
-      </c>
-      <c r="Q23" s="44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" s="45">
         <v>700</v>
       </c>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45" t="e">
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U23" s="44">
+      <c r="V26" s="45">
         <v>700</v>
       </c>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45" t="e">
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C24" s="24">
-        <v>300</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="E24" s="24">
-        <v>4</v>
-      </c>
-      <c r="F24" s="24">
-        <v>4</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="44">
-        <v>512</v>
-      </c>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="44">
-        <v>700</v>
-      </c>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="44">
-        <v>700</v>
-      </c>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="24">
-        <v>23</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="C25" s="46">
-        <v>300</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>395</v>
-      </c>
-      <c r="F25" s="46">
-        <v>4</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>396</v>
-      </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="44">
-        <v>512</v>
-      </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="44">
-        <v>700</v>
-      </c>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="44">
-        <v>700</v>
-      </c>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="24">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C26" s="6">
-        <v>300</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="E26" s="6">
-        <v>4</v>
-      </c>
-      <c r="F26" s="6">
-        <v>4</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>398</v>
-      </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="44">
-        <v>512</v>
-      </c>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="44">
-        <v>700</v>
-      </c>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" s="44">
-        <v>700</v>
-      </c>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27" s="34">
+    <row r="27" spans="1:25">
+      <c r="A27" s="44">
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="C27" s="6">
         <v>512</v>
       </c>
-      <c r="D27" s="34" t="s">
-        <v>390</v>
+      <c r="D27" s="45" t="s">
+        <v>387</v>
       </c>
       <c r="E27" s="6">
         <v>4</v>
@@ -5010,116 +5389,153 @@
         <v>8</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="I27" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45" t="e">
-        <f t="shared" ref="L27" si="8">2/(1/J27+1/K27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="44">
-        <v>512</v>
-      </c>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45" t="e">
-        <f t="shared" ref="P27" si="9">2/(1/N27+1/O27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="44">
-        <v>700</v>
-      </c>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45" t="e">
-        <f t="shared" ref="T27" si="10">2/(1/R27+1/S27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" s="44">
-        <v>700</v>
-      </c>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45" t="e">
-        <f t="shared" ref="X27" si="11">2/(1/V27+1/W27)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="34">
+      <c r="J27" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="K27" s="60">
+        <v>71.688999999999993</v>
+      </c>
+      <c r="L27" s="60">
+        <v>77.8</v>
+      </c>
+      <c r="M27" s="60">
+        <f t="shared" ref="M27" si="8">2/(1/K27+1/L27)</f>
+        <v>74.619593414900081</v>
+      </c>
+      <c r="N27" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="O27" s="60">
+        <v>82.009</v>
+      </c>
+      <c r="P27" s="60">
+        <v>76.686999999999998</v>
+      </c>
+      <c r="Q27" s="60">
+        <f t="shared" ref="Q27" si="9">2/(1/O27+1/P27)</f>
+        <v>79.258761191208336</v>
+      </c>
+      <c r="R27" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="S27" s="60">
+        <v>70.411000000000001</v>
+      </c>
+      <c r="T27" s="60">
+        <v>81.501000000000005</v>
+      </c>
+      <c r="U27" s="60">
+        <f t="shared" ref="U27" si="10">2/(1/S27+1/T27)</f>
+        <v>75.551199523408286</v>
+      </c>
+      <c r="V27" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="W27" s="60">
+        <v>79.543000000000006</v>
+      </c>
+      <c r="X27" s="60">
+        <v>82.638000000000005</v>
+      </c>
+      <c r="Y27" s="60">
+        <f t="shared" ref="Y27" si="11">2/(1/W27+1/X27)</f>
+        <v>81.060968103538642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="44">
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C28" s="6">
         <v>512</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>410</v>
+      <c r="D28" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4</v>
       </c>
       <c r="F28" s="6">
         <v>8</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45" t="e">
-        <f t="shared" ref="L28" si="12">2/(1/J28+1/K28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="44">
-        <v>512</v>
-      </c>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45" t="e">
-        <f t="shared" ref="P28" si="13">2/(1/N28+1/O28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="44">
-        <v>700</v>
-      </c>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45" t="e">
-        <f t="shared" ref="T28" si="14">2/(1/R28+1/S28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="44">
-        <v>700</v>
-      </c>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45" t="e">
-        <f t="shared" ref="X28" si="15">2/(1/V28+1/W28)</f>
-        <v>#DIV/0!</v>
+        <v>404</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="K28" s="60">
+        <v>69.772000000000006</v>
+      </c>
+      <c r="L28" s="60">
+        <v>80</v>
+      </c>
+      <c r="M28" s="60">
+        <f t="shared" ref="M28" si="12">2/(1/K28+1/L28)</f>
+        <v>74.536762545736181</v>
+      </c>
+      <c r="N28" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="O28" s="60">
+        <v>82.1</v>
+      </c>
+      <c r="P28" s="60">
+        <v>82.856999999999999</v>
+      </c>
+      <c r="Q28" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="R28" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="S28" s="60">
+        <v>70.775999999999996</v>
+      </c>
+      <c r="T28" s="60">
+        <v>80.394000000000005</v>
+      </c>
+      <c r="U28" s="60">
+        <f t="shared" ref="U28" si="13">2/(1/S28+1/T28)</f>
+        <v>75.279033459019644</v>
+      </c>
+      <c r="V28" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="W28" s="60">
+        <v>81.37</v>
+      </c>
+      <c r="X28" s="60">
+        <v>82.5</v>
+      </c>
+      <c r="Y28" s="60">
+        <f t="shared" ref="Y28" si="14">2/(1/W28+1/X28)</f>
+        <v>81.931103923842073</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="W1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5129,10 +5545,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S26"/>
+  <dimension ref="B3:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5155,752 +5571,835 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="K3" s="66" t="s">
+        <v>381</v>
+      </c>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="29">
+        <v>7</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="29">
+        <v>300</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="G4" s="29">
+        <v>4</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="K4" s="29">
+        <v>10</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="M4" s="29">
+        <v>300</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="O4" s="29">
+        <v>4</v>
+      </c>
+      <c r="P4" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="29">
+        <v>6</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="29">
+        <v>300</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="29">
+        <v>4</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="K5" s="30">
+        <v>5</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="M5" s="30">
+        <v>300</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="P5" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="40">
+        <v>5</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="40">
+        <v>300</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="G6" s="40">
+        <v>4</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="K6" s="29">
+        <v>15</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="M6" s="29">
+        <v>512</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="O6" s="29">
+        <v>4</v>
+      </c>
+      <c r="P6" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="K7" s="30">
+        <v>16</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="M7" s="30">
+        <v>512</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="P7" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="L11" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="K3" s="52" t="s">
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="2">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="2">
+        <v>300</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="K12" s="30">
+        <v>10</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="M12" s="30">
+        <v>300</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="O12" s="30">
+        <v>4</v>
+      </c>
+      <c r="P12" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="S12" s="29"/>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="29">
+        <v>2</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="29">
+        <v>300</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="G13" s="29">
+        <v>4</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="K13" s="29">
+        <v>17</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="29">
+        <v>300</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="O13" s="29">
+        <v>4</v>
+      </c>
+      <c r="P13" s="29">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="S13" s="29"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="29">
+        <v>3</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" s="29">
+        <v>300</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="G14" s="29">
+        <v>4</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="K14" s="30">
+        <v>15</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="M14" s="30">
+        <v>512</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="O14" s="30">
+        <v>4</v>
+      </c>
+      <c r="P14" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="29">
+        <v>300</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="G15" s="29">
+        <v>4</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="K15" s="29">
+        <v>18</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="29">
+        <v>512</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="O15" s="29">
+        <v>4</v>
+      </c>
+      <c r="P15" s="29">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="29">
+        <v>4</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" s="29">
+        <v>300</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="G16" s="29">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+    </row>
+    <row r="17" spans="2:18" ht="15" thickBot="1">
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="32">
+        <v>7</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" s="33">
+        <v>300</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="G18" s="33">
+        <v>4</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="35">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="2">
+        <v>300</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="15" thickBot="1">
+      <c r="B20" s="37">
+        <v>9</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" s="38">
+        <v>300</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="G20" s="38">
+        <v>4</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="K20" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="31">
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="K21" s="29">
+        <v>21</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="M21" s="29">
+        <v>300</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="O21" s="29">
+        <v>4</v>
+      </c>
+      <c r="P21" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="R21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="29">
+        <v>12</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D22" s="29">
+        <v>300</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F22" s="29">
+        <v>3</v>
+      </c>
+      <c r="G22" s="29">
+        <v>4</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="K22" s="30">
+        <v>10</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="M22" s="30">
+        <v>300</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="O22" s="30">
+        <v>4</v>
+      </c>
+      <c r="P22" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="29">
+        <v>10</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="29">
+        <v>300</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F23" s="29">
+        <v>4</v>
+      </c>
+      <c r="G23" s="29">
+        <v>4</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="K23" s="29">
+        <v>22</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="M23" s="29">
+        <v>300</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="O23" s="29">
+        <v>4</v>
+      </c>
+      <c r="P23" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="R23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="29">
+        <v>11</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="29">
+        <v>300</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F24" s="29">
+        <v>5</v>
+      </c>
+      <c r="G24" s="29">
+        <v>4</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="29">
+        <v>13</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="29">
+        <v>300</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25" s="29">
+        <v>6</v>
+      </c>
+      <c r="G25" s="29">
+        <v>4</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="K25">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>399</v>
+      </c>
+      <c r="M25">
+        <v>512</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>428</v>
+      </c>
+      <c r="R25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="29">
+        <v>14</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" s="29">
+        <v>300</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26" s="29">
         <v>7</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" s="31">
-        <v>300</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="G4" s="31">
-        <v>4</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="K4" s="31">
-        <v>10</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="M4" s="31">
-        <v>300</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="O4" s="31">
-        <v>4</v>
-      </c>
-      <c r="P4" s="31">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="31">
-        <v>6</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" s="31">
-        <v>300</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="31">
-        <v>4</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="K5" s="32">
-        <v>5</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="M5" s="32">
-        <v>300</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="P5" s="32">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="43">
-        <v>5</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="D6" s="43">
-        <v>300</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" s="43">
-        <v>4</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>371</v>
-      </c>
-      <c r="K6" s="31">
-        <v>15</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="M6" s="31">
+      <c r="G26" s="29">
+        <v>4</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="K26">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>399</v>
+      </c>
+      <c r="M26">
         <v>512</v>
       </c>
-      <c r="N6" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="O6" s="31">
-        <v>4</v>
-      </c>
-      <c r="P6" s="31">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="K7" s="32">
-        <v>16</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="M7" s="32">
+      <c r="N26" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>428</v>
+      </c>
+      <c r="R26" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>399</v>
+      </c>
+      <c r="M27">
         <v>512</v>
       </c>
-      <c r="N7" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="P7" s="32">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="L11" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="31">
-        <v>2</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D12" s="31">
-        <v>300</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="F12" s="31" t="s">
+      <c r="N27" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="G12" s="31">
-        <v>4</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="K12" s="32">
-        <v>10</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="M12" s="32">
-        <v>300</v>
-      </c>
-      <c r="N12" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="O12" s="32">
-        <v>4</v>
-      </c>
-      <c r="P12" s="32">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R12" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="S12" s="31"/>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="B13" s="31">
-        <v>3</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D13" s="31">
-        <v>300</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="G13" s="31">
-        <v>4</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="K13" s="31">
-        <v>17</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="31">
-        <v>300</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="O13" s="31">
-        <v>4</v>
-      </c>
-      <c r="P13" s="31">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="R13" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="S13" s="31"/>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="31">
-        <v>1</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14" s="31">
-        <v>300</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="G14" s="31">
-        <v>4</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="K14" s="32">
-        <v>15</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="M14" s="32">
-        <v>512</v>
-      </c>
-      <c r="N14" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="O14" s="32">
-        <v>4</v>
-      </c>
-      <c r="P14" s="32">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R14" s="32" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="B15" s="31">
-        <v>4</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D15" s="31">
-        <v>300</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="G15" s="31">
-        <v>4</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="K15" s="31">
-        <v>18</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="31">
-        <v>512</v>
-      </c>
-      <c r="N15" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="O15" s="31">
-        <v>4</v>
-      </c>
-      <c r="P15" s="31">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="R15" s="31" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="38">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D16" s="2">
-        <v>300</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4</v>
-      </c>
-      <c r="G16" s="2">
-        <v>4</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-    </row>
-    <row r="17" spans="2:18" ht="15" thickBot="1"/>
-    <row r="18" spans="2:18">
-      <c r="B18" s="35">
-        <v>7</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="D18" s="36">
-        <v>300</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="G18" s="36">
-        <v>4</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="38">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D19" s="2">
-        <v>300</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4</v>
-      </c>
-      <c r="G19" s="2">
-        <v>4</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="K19" s="52" t="s">
-        <v>387</v>
-      </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-    </row>
-    <row r="20" spans="2:18" ht="15" thickBot="1">
-      <c r="B20" s="40">
-        <v>9</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="D20" s="41">
-        <v>300</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>375</v>
-      </c>
-      <c r="G20" s="41">
-        <v>4</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="K20" s="31">
-        <v>21</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="M20" s="31">
-        <v>300</v>
-      </c>
-      <c r="N20" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="O20" s="31">
-        <v>4</v>
-      </c>
-      <c r="P20" s="31">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="R20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="K21" s="32">
-        <v>10</v>
-      </c>
-      <c r="L21" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="M21" s="32">
-        <v>300</v>
-      </c>
-      <c r="N21" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="O21" s="32">
-        <v>4</v>
-      </c>
-      <c r="P21" s="32">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="R21" s="32" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="31">
-        <v>12</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D22" s="31">
-        <v>300</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="F22" s="31">
-        <v>3</v>
-      </c>
-      <c r="G22" s="31">
-        <v>4</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="K22" s="31">
-        <v>22</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="M22" s="31">
-        <v>300</v>
-      </c>
-      <c r="N22" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="O22" s="31">
-        <v>4</v>
-      </c>
-      <c r="P22" s="31">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="R22" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18">
-      <c r="B23" s="31">
-        <v>10</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D23" s="31">
-        <v>300</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="F23" s="31">
-        <v>4</v>
-      </c>
-      <c r="G23" s="31">
-        <v>4</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18">
-      <c r="B24" s="31">
-        <v>11</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D24" s="31">
-        <v>300</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="F24" s="31">
-        <v>5</v>
-      </c>
-      <c r="G24" s="31">
-        <v>4</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18">
-      <c r="B25" s="31">
-        <v>13</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D25" s="31">
-        <v>300</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="F25" s="31">
-        <v>6</v>
-      </c>
-      <c r="G25" s="31">
-        <v>4</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18">
-      <c r="B26" s="31">
-        <v>14</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D26" s="31">
-        <v>300</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="F26" s="31">
-        <v>7</v>
-      </c>
-      <c r="G26" s="31">
-        <v>4</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>371</v>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>428</v>
+      </c>
+      <c r="R27" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -5909,7 +6408,7 @@
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="K3:R3"/>
     <mergeCell ref="L11:S11"/>
-    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="K20:R20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5922,7 +6421,7 @@
   <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="I6:N6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5964,7 +6463,7 @@
         <v>83</v>
       </c>
       <c r="N2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="2:14">
@@ -6051,7 +6550,7 @@
         <v>129</v>
       </c>
       <c r="N6" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -6108,7 +6607,7 @@
         <v>132</v>
       </c>
       <c r="N9" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="5:6">
@@ -6152,7 +6651,7 @@
   <dimension ref="D2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E4"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6203,764 +6702,903 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:R35"/>
+  <dimension ref="B1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="K31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35:S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="6.125" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="15" width="8.375" customWidth="1"/>
+    <col min="16" max="16" width="8.125" customWidth="1"/>
+    <col min="17" max="17" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="9.625" customWidth="1"/>
+    <col min="19" max="19" width="66" customWidth="1"/>
+    <col min="20" max="20" width="7.125" customWidth="1"/>
+    <col min="21" max="21" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17">
-      <c r="Q1" s="17"/>
-    </row>
-    <row r="2" spans="3:17">
-      <c r="C2" s="19" t="s">
+    <row r="1" spans="2:16">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="2:16" ht="15.75">
+      <c r="B2" s="69" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="C3" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="D3" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="Q2" s="21"/>
-    </row>
-    <row r="3" spans="3:17" ht="28.5">
-      <c r="C3" s="19" t="s">
+      <c r="P3" s="20"/>
+    </row>
+    <row r="4" spans="2:16" ht="28.5">
+      <c r="B4" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="L3" s="19" t="s">
+      <c r="J4" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="3:17" ht="28.5">
-      <c r="C4" s="19" t="s">
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="3:17" ht="28.5">
-      <c r="C5" s="19" t="s">
+      <c r="P5" s="20"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="K6" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="3:17" ht="28.5">
-      <c r="C6" s="19" t="s">
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="2:16" ht="28.5">
+      <c r="B7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="J7" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="K7" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="3:17" ht="28.5">
-      <c r="C7" s="19" t="s">
+      <c r="P7" s="20"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="J8" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="K8" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" spans="3:17" ht="28.5">
-      <c r="C8" s="19" t="s">
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="2:16" ht="28.5">
+      <c r="B9" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="E9" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="I9" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="J9" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="K9" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="3:17" ht="28.5">
-      <c r="C9" s="19" t="s">
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" spans="2:16" ht="28.5">
+      <c r="B10" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="E10" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="F10" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="I10" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="K10" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="3:17" ht="28.5">
-      <c r="C10" s="19" t="s">
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="D11" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="E11" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="F11" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="G11" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="I11" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="J11" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="K11" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" spans="3:17" ht="42.75">
-      <c r="C11" s="19" t="s">
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="2:16" ht="28.5">
+      <c r="B12" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="E12" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="F12" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="G12" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="H12" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="I12" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="J12" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="K12" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="Q11" s="21"/>
-    </row>
-    <row r="12" spans="3:17" ht="28.5">
-      <c r="C12" s="19" t="s">
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="2:16" ht="28.5">
+      <c r="B13" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="H13" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="I13" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="J13" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="K13" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="Q12" s="21"/>
-    </row>
-    <row r="13" spans="3:17" ht="28.5">
-      <c r="C13" s="19" t="s">
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="D14" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="H14" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="I14" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="J14" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="K14" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="Q13" s="22"/>
-    </row>
-    <row r="14" spans="3:17" ht="28.5">
-      <c r="C14" s="19" t="s">
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="C15" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="E15" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="G15" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="H15" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="I15" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="K15" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="Q14" s="22"/>
-    </row>
-    <row r="15" spans="3:17" ht="28.5">
-      <c r="C15" s="19" t="s">
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="2:16" ht="28.5">
+      <c r="B16" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="D16" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="E16" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="F16" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="G16" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="H16" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="I16" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="J16" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="K16" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="Q15" s="21"/>
-    </row>
-    <row r="16" spans="3:17" ht="28.5">
-      <c r="C16" s="19" t="s">
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="E17" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="F17" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="G17" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="H17" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="I17" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="J17" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="K17" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="Q16" s="21"/>
-    </row>
-    <row r="17" spans="3:18" ht="28.5">
-      <c r="C17" s="19" t="s">
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="E18" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="F18" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="G18" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="H18" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="I18" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="J18" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="K18" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="3:18" ht="28.5">
-      <c r="C18" s="19" t="s">
+      <c r="P18" s="20"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="E19" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="F19" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="G19" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="H19" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="I19" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="J19" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="K19" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="3:18" ht="28.5">
-      <c r="C19" s="19" t="s">
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="D20" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="E20" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="F20" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="G20" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="H20" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="I20" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="J20" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="K20" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="Q19" s="22"/>
-    </row>
-    <row r="20" spans="3:18" ht="28.5">
-      <c r="C20" s="19" t="s">
+      <c r="P20" s="21"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="D21" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="E21" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="F21" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="G21" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="H21" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="I21" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="J21" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="K21" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="Q20" s="21"/>
-    </row>
-    <row r="21" spans="3:18" ht="28.5">
-      <c r="C21" s="19" t="s">
+      <c r="P21" s="20"/>
+    </row>
+    <row r="22" spans="2:17" ht="15" thickBot="1">
+      <c r="B22" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="E22" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="F22" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="G22" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="H22" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="I22" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="J22" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="K22" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="Q21" s="21"/>
-    </row>
-    <row r="22" spans="3:18">
-      <c r="Q22" s="21"/>
-    </row>
-    <row r="23" spans="3:18" ht="14.25" customHeight="1">
-      <c r="M23" s="53" t="s">
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" spans="2:17" ht="15" thickBot="1">
+      <c r="M23" s="70" t="s">
+        <v>410</v>
+      </c>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="72"/>
+    </row>
+    <row r="24" spans="2:17" ht="14.25" customHeight="1">
+      <c r="L24" s="67"/>
+      <c r="M24" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="N24" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="O24" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="Q24" s="56" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="L25" s="67"/>
+      <c r="M25" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="N25" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="O25" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="P25" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="47" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="24">
+      <c r="L26" s="67"/>
+      <c r="M26" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="N26" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="P26" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q26" s="49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="24.75" thickBot="1">
+      <c r="L27" s="67"/>
+      <c r="M27" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="N27" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="P27" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q27" s="52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="L31" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="M31" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="N31" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="O31" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="P31" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="R23" s="23" t="s">
+    </row>
+    <row r="32" spans="2:17">
+      <c r="L32" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="M32" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="N32" s="43" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="24" spans="3:18">
-      <c r="M24" s="53"/>
-      <c r="N24" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="P24" s="20" t="s">
+      <c r="O32" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="P32" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="Q24" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="R24" s="23" t="s">
+    </row>
+    <row r="33" spans="12:19">
+      <c r="L33" s="22" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="25" spans="3:18">
-      <c r="M25" s="53"/>
-      <c r="N25" s="23" t="s">
+      <c r="M33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="N33" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="O33" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="O25" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="P25" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q25" s="20" t="s">
+      <c r="P33" s="43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="12:19">
+      <c r="L34" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="R25" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18">
-      <c r="M26" s="53"/>
-      <c r="N26" s="23" t="s">
+      <c r="M34" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="N34" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="O34" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="P34" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="O26" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="R26" s="20" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="3:18" ht="14.25" customHeight="1"/>
-    <row r="35" ht="27.75" customHeight="1"/>
+    </row>
+    <row r="35" spans="12:19">
+      <c r="R35" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="12:19" ht="228">
+      <c r="R36" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="S36" s="59" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="12:19" ht="229.5">
+      <c r="R37" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="S37" s="57" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M23:M26"/>
+  <mergeCells count="4">
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="434">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1421,10 +1421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>my1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>180k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1546,10 +1542,6 @@
   </si>
   <si>
     <t>30k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3632,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4804,7 +4796,7 @@
       </c>
       <c r="I18" s="41"/>
       <c r="J18" s="45" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
@@ -4908,7 +4900,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C20" s="42">
         <v>512</v>
@@ -5003,23 +4995,31 @@
         <v>391</v>
       </c>
       <c r="I21" s="45"/>
-      <c r="J21" s="45" t="s">
-        <v>402</v>
-      </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60" t="e">
+      <c r="J21" s="45">
+        <v>300</v>
+      </c>
+      <c r="K21" s="60">
+        <v>73.424999999999997</v>
+      </c>
+      <c r="L21" s="60">
+        <v>82.546000000000006</v>
+      </c>
+      <c r="M21" s="60">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>77.718807342390576</v>
       </c>
       <c r="N21" s="45">
         <v>512</v>
       </c>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60" t="e">
+      <c r="O21" s="60">
+        <v>76.072999999999993</v>
+      </c>
+      <c r="P21" s="60">
+        <v>51.579000000000001</v>
+      </c>
+      <c r="Q21" s="60">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>61.476032760943824</v>
       </c>
       <c r="R21" s="45">
         <v>700</v>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="45" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
@@ -5334,21 +5334,31 @@
         <v>368</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60" t="e">
+      <c r="J26" s="6">
+        <v>300</v>
+      </c>
+      <c r="K26" s="60">
+        <v>58.904000000000003</v>
+      </c>
+      <c r="L26" s="60">
+        <v>75.703999999999994</v>
+      </c>
+      <c r="M26" s="60">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>66.255622489005106</v>
       </c>
       <c r="N26" s="45">
         <v>512</v>
       </c>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60" t="e">
+      <c r="O26" s="60">
+        <v>66.849000000000004</v>
+      </c>
+      <c r="P26" s="60">
+        <v>57.457000000000001</v>
+      </c>
+      <c r="Q26" s="60">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>61.798191446913265</v>
       </c>
       <c r="R26" s="45">
         <v>700</v>
@@ -5374,7 +5384,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C27" s="6">
         <v>512</v>
@@ -5389,16 +5399,16 @@
         <v>8</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>401</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J27" s="45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K27" s="60">
         <v>71.688999999999993</v>
@@ -5411,7 +5421,7 @@
         <v>74.619593414900081</v>
       </c>
       <c r="N27" s="45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O27" s="60">
         <v>82.009</v>
@@ -5420,11 +5430,11 @@
         <v>76.686999999999998</v>
       </c>
       <c r="Q27" s="60">
-        <f t="shared" ref="Q27" si="9">2/(1/O27+1/P27)</f>
+        <f t="shared" ref="Q27:Q28" si="9">2/(1/O27+1/P27)</f>
         <v>79.258761191208336</v>
       </c>
       <c r="R27" s="45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S27" s="60">
         <v>70.411000000000001</v>
@@ -5437,7 +5447,7 @@
         <v>75.551199523408286</v>
       </c>
       <c r="V27" s="45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W27" s="60">
         <v>79.543000000000006</v>
@@ -5470,16 +5480,16 @@
         <v>8</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K28" s="60">
         <v>69.772000000000006</v>
@@ -5492,7 +5502,7 @@
         <v>74.536762545736181</v>
       </c>
       <c r="N28" s="45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O28" s="60">
         <v>82.1</v>
@@ -5500,11 +5510,12 @@
       <c r="P28" s="60">
         <v>82.856999999999999</v>
       </c>
-      <c r="Q28" s="60" t="s">
-        <v>434</v>
+      <c r="Q28" s="60">
+        <f t="shared" si="9"/>
+        <v>82.476763035215228</v>
       </c>
       <c r="R28" s="45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="S28" s="60">
         <v>70.775999999999996</v>
@@ -5517,7 +5528,7 @@
         <v>75.279033459019644</v>
       </c>
       <c r="V28" s="45" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W28" s="60">
         <v>81.37</v>
@@ -5547,8 +5558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5810,10 +5821,10 @@
         <v>4</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="K12" s="30">
         <v>10</v>
@@ -6320,10 +6331,10 @@
         <v>4</v>
       </c>
       <c r="Q25" t="s">
+        <v>427</v>
+      </c>
+      <c r="R25" t="s">
         <v>428</v>
-      </c>
-      <c r="R25" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6370,10 +6381,10 @@
         <v>4</v>
       </c>
       <c r="Q26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -6396,10 +6407,10 @@
         <v>4</v>
       </c>
       <c r="Q27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -6550,7 +6561,7 @@
         <v>129</v>
       </c>
       <c r="N6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -6607,7 +6618,7 @@
         <v>132</v>
       </c>
       <c r="N9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="5:6">
@@ -6747,7 +6758,7 @@
     </row>
     <row r="2" spans="2:16" ht="15.75">
       <c r="B2" s="69" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -7422,7 +7433,7 @@
     </row>
     <row r="23" spans="2:17" ht="15" thickBot="1">
       <c r="M23" s="70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N23" s="71"/>
       <c r="O23" s="71"/>
@@ -7450,7 +7461,7 @@
     <row r="25" spans="2:17">
       <c r="L25" s="67"/>
       <c r="M25" s="46" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N25" s="43" t="s">
         <v>175</v>
@@ -7520,7 +7531,7 @@
     </row>
     <row r="32" spans="2:17">
       <c r="L32" s="43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M32" s="43" t="s">
         <v>175</v>
@@ -7571,26 +7582,26 @@
     </row>
     <row r="35" spans="12:19">
       <c r="R35" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="12:19" ht="228">
       <c r="R36" s="58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="S36" s="59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="12:19" ht="229.5">
       <c r="R37" s="58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="S37" s="57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/实验结果03_19.xlsx
+++ b/实验结果03_19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="结果统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="433">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1509,10 +1509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jianyun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cocoICDAR13SCUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1545,7 +1541,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xiaodong</t>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2004,7 +2000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2154,6 +2150,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2507,16 +2506,16 @@
       </c>
     </row>
     <row r="4" spans="4:11">
-      <c r="D4" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="65" t="s">
+      <c r="D4" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="64" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2533,10 +2532,10 @@
       </c>
     </row>
     <row r="5" spans="4:11">
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="64"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2551,16 +2550,16 @@
       </c>
     </row>
     <row r="6" spans="4:11">
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="64" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2577,10 +2576,10 @@
       </c>
     </row>
     <row r="7" spans="4:11">
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="64"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2595,16 +2594,16 @@
       </c>
     </row>
     <row r="8" spans="4:11">
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="64" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2621,10 +2620,10 @@
       </c>
     </row>
     <row r="9" spans="4:11">
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="64"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
@@ -3624,8 +3623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20:Q20"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3651,29 +3650,29 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="45"/>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
       <c r="R1" s="45"/>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
       <c r="V1" s="45"/>
-      <c r="W1" s="65" t="s">
+      <c r="W1" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="45" t="s">
@@ -4394,7 +4393,7 @@
       <c r="L12" s="60">
         <v>79.606999999999999</v>
       </c>
-      <c r="M12" s="60">
+      <c r="M12" s="61">
         <f t="shared" si="0"/>
         <v>72.564637174070583</v>
       </c>
@@ -4746,7 +4745,7 @@
       <c r="P17" s="60">
         <v>81.236999999999995</v>
       </c>
-      <c r="Q17" s="60">
+      <c r="Q17" s="61">
         <f t="shared" si="6"/>
         <v>76.982249747389687</v>
       </c>
@@ -4795,23 +4794,30 @@
         <v>368</v>
       </c>
       <c r="I18" s="41"/>
-      <c r="J18" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60" t="e">
+      <c r="J18" s="63">
+        <v>300</v>
+      </c>
+      <c r="K18" s="60">
+        <v>62.74</v>
+      </c>
+      <c r="L18" s="60">
+        <v>76.846000000000004</v>
+      </c>
+      <c r="M18" s="60">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>69.080252174286812</v>
       </c>
       <c r="N18" s="45">
         <v>512</v>
       </c>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="O18" s="60">
+        <v>73.606999999999999</v>
+      </c>
+      <c r="P18" s="60">
+        <v>79.331000000000003</v>
+      </c>
+      <c r="Q18" s="61" t="s">
+        <v>432</v>
       </c>
       <c r="R18" s="45">
         <v>700</v>
@@ -4858,23 +4864,31 @@
         <v>391</v>
       </c>
       <c r="I19" s="45"/>
-      <c r="J19" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60" t="e">
+      <c r="J19" s="63">
+        <v>300</v>
+      </c>
+      <c r="K19" s="60">
+        <v>74.703000000000003</v>
+      </c>
+      <c r="L19" s="60">
+        <v>83.983999999999995</v>
+      </c>
+      <c r="M19" s="61">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>79.072094777770076</v>
       </c>
       <c r="N19" s="45">
         <v>512</v>
       </c>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60" t="e">
+      <c r="O19" s="60">
+        <v>74.247</v>
+      </c>
+      <c r="P19" s="60">
+        <v>59.779000000000003</v>
+      </c>
+      <c r="Q19" s="60">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>66.232095459090033</v>
       </c>
       <c r="R19" s="45">
         <v>700</v>
@@ -4900,7 +4914,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C20" s="42">
         <v>512</v>
@@ -5066,23 +5080,31 @@
         <v>391</v>
       </c>
       <c r="I22" s="45"/>
-      <c r="J22" s="45" t="s">
-        <v>424</v>
-      </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60" t="e">
+      <c r="J22" s="45">
+        <v>300</v>
+      </c>
+      <c r="K22" s="60">
+        <v>70.046000000000006</v>
+      </c>
+      <c r="L22" s="60">
+        <v>82.296000000000006</v>
+      </c>
+      <c r="M22" s="60">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>75.678481521839018</v>
       </c>
       <c r="N22" s="45">
         <v>512</v>
       </c>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60" t="e">
+      <c r="O22" s="60">
+        <v>80.912999999999997</v>
+      </c>
+      <c r="P22" s="60">
+        <v>83.584999999999994</v>
+      </c>
+      <c r="Q22" s="61">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>82.227298872934625</v>
       </c>
       <c r="R22" s="45">
         <v>700</v>
@@ -5384,7 +5406,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C27" s="6">
         <v>512</v>
@@ -5582,26 +5604,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="67" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="K3" s="66" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="K3" s="67" t="s">
         <v>381</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="29">
@@ -5780,26 +5802,26 @@
       </c>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="L11" s="66" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="L11" s="67" t="s">
         <v>382</v>
       </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" s="2">
@@ -5821,10 +5843,10 @@
         <v>4</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="K12" s="30">
         <v>10</v>
@@ -6124,16 +6146,16 @@
       <c r="I20" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="K20" s="66" t="s">
+      <c r="K20" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
     </row>
     <row r="21" spans="2:18">
       <c r="K21" s="29">
@@ -6331,10 +6353,10 @@
         <v>4</v>
       </c>
       <c r="Q25" t="s">
+        <v>426</v>
+      </c>
+      <c r="R25" t="s">
         <v>427</v>
-      </c>
-      <c r="R25" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6381,10 +6403,10 @@
         <v>4</v>
       </c>
       <c r="Q26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -6407,10 +6429,10 @@
         <v>4</v>
       </c>
       <c r="Q27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -6744,31 +6766,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
       <c r="P1" s="17"/>
     </row>
     <row r="2" spans="2:16" ht="15.75">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
       <c r="P2" s="17"/>
     </row>
     <row r="3" spans="2:16">
@@ -7432,16 +7454,16 @@
       <c r="P22" s="20"/>
     </row>
     <row r="23" spans="2:17" ht="15" thickBot="1">
-      <c r="M23" s="70" t="s">
+      <c r="M23" s="71" t="s">
         <v>409</v>
       </c>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="73"/>
     </row>
     <row r="24" spans="2:17" ht="14.25" customHeight="1">
-      <c r="L24" s="67"/>
+      <c r="L24" s="68"/>
       <c r="M24" s="53" t="s">
         <v>339</v>
       </c>
@@ -7459,7 +7481,7 @@
       </c>
     </row>
     <row r="25" spans="2:17">
-      <c r="L25" s="67"/>
+      <c r="L25" s="68"/>
       <c r="M25" s="46" t="s">
         <v>411</v>
       </c>
@@ -7477,7 +7499,7 @@
       </c>
     </row>
     <row r="26" spans="2:17" ht="24">
-      <c r="L26" s="67"/>
+      <c r="L26" s="68"/>
       <c r="M26" s="48" t="s">
         <v>344</v>
       </c>
@@ -7495,7 +7517,7 @@
       </c>
     </row>
     <row r="27" spans="2:17" ht="24.75" thickBot="1">
-      <c r="L27" s="67"/>
+      <c r="L27" s="68"/>
       <c r="M27" s="50" t="s">
         <v>346</v>
       </c>
